--- a/FINAL FITNESS DATA/Compiled fitness and average fitness scores.xlsx
+++ b/FINAL FITNESS DATA/Compiled fitness and average fitness scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="23920" windowHeight="7420" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="23920" windowHeight="7420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fitness matrices" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="38">
   <si>
     <t>77 (STOP)</t>
   </si>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +165,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
@@ -178,8 +185,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEDC81"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -260,8 +280,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -271,12 +297,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -290,6 +318,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +334,9 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -634,9 +668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ218"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A58" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D80" sqref="D80"/>
+      <selection pane="topRight" activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -49432,10 +49466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BZ26"/>
+  <dimension ref="A2:BZ27"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -49448,4042 +49482,4305 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
-      <c r="B3">
+    <row r="3" spans="1:78" ht="20">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>16</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>18</v>
-      </c>
-      <c r="T3">
-        <v>19</v>
-      </c>
-      <c r="U3">
-        <v>20</v>
-      </c>
-      <c r="V3">
-        <v>21</v>
-      </c>
-      <c r="W3">
-        <v>22</v>
-      </c>
-      <c r="X3">
-        <v>23</v>
-      </c>
-      <c r="Y3">
-        <v>24</v>
-      </c>
-      <c r="Z3">
-        <v>25</v>
-      </c>
-      <c r="AA3">
-        <v>26</v>
-      </c>
-      <c r="AB3">
-        <v>27</v>
-      </c>
-      <c r="AC3">
-        <v>28</v>
-      </c>
-      <c r="AD3">
-        <v>29</v>
-      </c>
-      <c r="AE3">
-        <v>30</v>
-      </c>
-      <c r="AF3">
-        <v>31</v>
-      </c>
-      <c r="AG3">
-        <v>32</v>
-      </c>
-      <c r="AH3">
-        <v>33</v>
-      </c>
-      <c r="AI3">
-        <v>34</v>
-      </c>
-      <c r="AJ3">
-        <v>35</v>
-      </c>
-      <c r="AK3">
-        <v>36</v>
-      </c>
-      <c r="AL3">
-        <v>37</v>
-      </c>
-      <c r="AM3">
-        <v>38</v>
-      </c>
-      <c r="AN3">
-        <v>39</v>
-      </c>
-      <c r="AO3">
-        <v>40</v>
-      </c>
-      <c r="AP3">
-        <v>41</v>
-      </c>
-      <c r="AQ3">
-        <v>42</v>
-      </c>
-      <c r="AR3">
-        <v>43</v>
-      </c>
-      <c r="AS3">
-        <v>44</v>
-      </c>
-      <c r="AT3">
-        <v>45</v>
-      </c>
-      <c r="AU3">
-        <v>46</v>
-      </c>
-      <c r="AV3">
-        <v>47</v>
-      </c>
-      <c r="AW3">
-        <v>48</v>
-      </c>
-      <c r="AX3">
-        <v>49</v>
-      </c>
-      <c r="AY3">
-        <v>50</v>
-      </c>
-      <c r="AZ3">
-        <v>51</v>
-      </c>
-      <c r="BA3">
-        <v>52</v>
-      </c>
-      <c r="BB3">
-        <v>53</v>
-      </c>
-      <c r="BC3">
-        <v>54</v>
-      </c>
-      <c r="BD3">
-        <v>55</v>
-      </c>
-      <c r="BE3">
-        <v>56</v>
-      </c>
-      <c r="BF3">
-        <v>57</v>
-      </c>
-      <c r="BG3">
-        <v>58</v>
-      </c>
-      <c r="BH3">
-        <v>59</v>
-      </c>
-      <c r="BI3">
-        <v>60</v>
-      </c>
-      <c r="BJ3">
-        <v>61</v>
-      </c>
-      <c r="BK3">
-        <v>62</v>
-      </c>
-      <c r="BL3">
-        <v>63</v>
-      </c>
-      <c r="BM3">
-        <v>64</v>
-      </c>
-      <c r="BN3">
-        <v>65</v>
-      </c>
-      <c r="BO3">
-        <v>66</v>
-      </c>
-      <c r="BP3">
-        <v>67</v>
-      </c>
-      <c r="BQ3">
-        <v>68</v>
-      </c>
-      <c r="BR3">
-        <v>69</v>
-      </c>
-      <c r="BS3">
-        <v>70</v>
-      </c>
-      <c r="BT3">
-        <v>71</v>
-      </c>
-      <c r="BU3">
-        <v>72</v>
-      </c>
-      <c r="BV3">
-        <v>73</v>
-      </c>
-      <c r="BW3">
-        <v>74</v>
-      </c>
-      <c r="BX3">
-        <v>75</v>
-      </c>
-      <c r="BY3">
-        <v>76</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:78">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.65240476190476193</v>
-      </c>
-      <c r="D4">
-        <v>0.52408999999999994</v>
-      </c>
-      <c r="E4">
-        <v>0.51355000000000006</v>
-      </c>
-      <c r="F4">
-        <v>0.49824999999999992</v>
-      </c>
-      <c r="G4">
-        <v>0.63290000000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.66059999999999985</v>
-      </c>
-      <c r="I4">
-        <v>0.44099999999999984</v>
-      </c>
-      <c r="J4">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="K4">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.72850000000000004</v>
-      </c>
-      <c r="M4">
-        <v>0.47975000000000001</v>
-      </c>
-      <c r="N4">
-        <v>0.83944999999999992</v>
-      </c>
-      <c r="O4">
-        <v>0.73549999999999993</v>
-      </c>
-      <c r="P4">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="Q4">
-        <v>0.91819999999999991</v>
-      </c>
-      <c r="R4">
-        <v>0.82530000000000003</v>
-      </c>
-      <c r="S4">
-        <v>0.99334999999999984</v>
-      </c>
-      <c r="T4">
-        <v>0.94860000000000011</v>
-      </c>
-      <c r="U4">
-        <v>0.97744999999999993</v>
-      </c>
-      <c r="V4">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="W4">
-        <v>0.93245</v>
-      </c>
       <c r="X4">
-        <v>0.68759999999999999</v>
+        <v>23</v>
       </c>
       <c r="Y4">
-        <v>0.97530000000000017</v>
+        <v>24</v>
       </c>
       <c r="Z4">
-        <v>0.9585999999999999</v>
+        <v>25</v>
       </c>
       <c r="AA4">
-        <v>0.34615000000000001</v>
+        <v>26</v>
       </c>
       <c r="AB4">
-        <v>0.51769999999999994</v>
+        <v>27</v>
       </c>
       <c r="AC4">
-        <v>0.86739999999999995</v>
+        <v>28</v>
       </c>
       <c r="AD4">
-        <v>0.90229999999999999</v>
+        <v>29</v>
       </c>
       <c r="AE4">
-        <v>0.40674999999999989</v>
+        <v>30</v>
       </c>
       <c r="AF4">
-        <v>0.87029999999999996</v>
+        <v>31</v>
       </c>
       <c r="AG4">
-        <v>0.81900000000000006</v>
+        <v>32</v>
       </c>
       <c r="AH4">
-        <v>0.81105000000000005</v>
+        <v>33</v>
       </c>
       <c r="AI4">
-        <v>0.73420000000000007</v>
+        <v>34</v>
       </c>
       <c r="AJ4">
-        <v>0.85325000000000006</v>
+        <v>35</v>
       </c>
       <c r="AK4">
-        <v>0.4133</v>
+        <v>36</v>
       </c>
       <c r="AL4">
-        <v>0.95360000000000011</v>
+        <v>37</v>
       </c>
       <c r="AM4">
-        <v>0.95174999999999998</v>
+        <v>38</v>
       </c>
       <c r="AN4">
-        <v>0.82745000000000002</v>
+        <v>39</v>
       </c>
       <c r="AO4">
-        <v>0.72114999999999996</v>
+        <v>40</v>
       </c>
       <c r="AP4">
-        <v>0.48931500000000006</v>
+        <v>41</v>
       </c>
       <c r="AQ4">
-        <v>0.23699999999999996</v>
+        <v>42</v>
       </c>
       <c r="AR4">
-        <v>0.34479999999999994</v>
+        <v>43</v>
       </c>
       <c r="AS4">
-        <v>0.39410000000000001</v>
+        <v>44</v>
       </c>
       <c r="AT4">
-        <v>0.87224999999999997</v>
+        <v>45</v>
       </c>
       <c r="AU4">
-        <v>0.79635000000000011</v>
+        <v>46</v>
       </c>
       <c r="AV4">
-        <v>0.41825000000000001</v>
+        <v>47</v>
       </c>
       <c r="AW4">
-        <v>0.29085000000000005</v>
+        <v>48</v>
       </c>
       <c r="AX4">
-        <v>0.5552380952380952</v>
+        <v>49</v>
       </c>
       <c r="AY4">
-        <v>0.41945000000000005</v>
+        <v>50</v>
       </c>
       <c r="AZ4">
-        <v>0.87295</v>
+        <v>51</v>
       </c>
       <c r="BA4">
-        <v>0.98685000000000012</v>
+        <v>52</v>
       </c>
       <c r="BB4">
-        <v>1.0091499999999998</v>
+        <v>53</v>
       </c>
       <c r="BC4">
-        <v>0.82925000000000004</v>
+        <v>54</v>
       </c>
       <c r="BD4">
-        <v>0.97965000000000002</v>
+        <v>55</v>
       </c>
       <c r="BE4">
-        <v>0.53689999999999993</v>
+        <v>56</v>
       </c>
       <c r="BF4">
-        <v>0.94450000000000001</v>
+        <v>57</v>
       </c>
       <c r="BG4">
-        <v>0.68124999999999991</v>
+        <v>58</v>
       </c>
       <c r="BH4">
-        <v>0.31974999999999998</v>
+        <v>59</v>
       </c>
       <c r="BI4">
-        <v>0.74819999999999987</v>
+        <v>60</v>
       </c>
       <c r="BJ4">
-        <v>0.51401999999999992</v>
+        <v>61</v>
       </c>
       <c r="BK4">
-        <v>1.0011000000000001</v>
+        <v>62</v>
       </c>
       <c r="BL4">
-        <v>0.8970499999999999</v>
+        <v>63</v>
       </c>
       <c r="BM4">
-        <v>0.96869999999999989</v>
+        <v>64</v>
       </c>
       <c r="BN4">
-        <v>0.85384999999999978</v>
+        <v>65</v>
       </c>
       <c r="BO4">
-        <v>0.68680000000000008</v>
+        <v>66</v>
       </c>
       <c r="BP4">
-        <v>0.48572999999999994</v>
+        <v>67</v>
       </c>
       <c r="BQ4">
-        <v>0.4797142857142857</v>
+        <v>68</v>
       </c>
       <c r="BR4">
-        <v>0.56719999999999993</v>
+        <v>69</v>
       </c>
       <c r="BS4">
-        <v>0.32768000000000003</v>
+        <v>70</v>
       </c>
       <c r="BT4">
-        <v>0.36928499999999997</v>
+        <v>71</v>
       </c>
       <c r="BU4">
-        <v>0.38355000000000006</v>
+        <v>72</v>
       </c>
       <c r="BV4">
-        <v>0.18519000000000002</v>
+        <v>73</v>
       </c>
       <c r="BW4">
-        <v>0.21325</v>
+        <v>74</v>
       </c>
       <c r="BX4">
-        <v>0.16572999999999999</v>
+        <v>75</v>
       </c>
       <c r="BY4">
-        <v>0.10197500000000001</v>
-      </c>
-      <c r="BZ4">
-        <v>7.6047619047619044E-2</v>
+        <v>76</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:78">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.55481428571428582</v>
+        <v>0.65240476190476193</v>
       </c>
       <c r="D5">
-        <v>0.44130000000000003</v>
+        <v>0.52408999999999994</v>
       </c>
       <c r="E5">
-        <v>0.28586500000000004</v>
+        <v>0.51355000000000006</v>
       </c>
       <c r="F5">
-        <v>0.43233499999999997</v>
+        <v>0.49824999999999992</v>
       </c>
       <c r="G5">
-        <v>0.46384499999999995</v>
+        <v>0.63290000000000002</v>
       </c>
       <c r="H5">
-        <v>0.47184999999999999</v>
+        <v>0.66059999999999985</v>
       </c>
       <c r="I5">
-        <v>0.265955</v>
+        <v>0.44099999999999984</v>
       </c>
       <c r="J5">
-        <v>0.60279500000000008</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="K5">
-        <v>0.26262999999999997</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="L5">
-        <v>0.63467000000000007</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="M5">
-        <v>0.35281499999999999</v>
+        <v>0.47975000000000001</v>
       </c>
       <c r="N5">
-        <v>0.75589499999999998</v>
+        <v>0.83944999999999992</v>
       </c>
       <c r="O5">
-        <v>0.69369999999999998</v>
+        <v>0.73549999999999993</v>
       </c>
       <c r="P5">
-        <v>0.63327999999999995</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="Q5">
-        <v>0.88176500000000002</v>
+        <v>0.91819999999999991</v>
       </c>
       <c r="R5">
-        <v>0.74657499999999999</v>
+        <v>0.82530000000000003</v>
       </c>
       <c r="S5">
-        <v>0.99580000000000024</v>
+        <v>0.99334999999999984</v>
       </c>
       <c r="T5">
-        <v>0.92594999999999994</v>
+        <v>0.94860000000000011</v>
       </c>
       <c r="U5">
-        <v>0.98241999999999996</v>
+        <v>0.97744999999999993</v>
       </c>
       <c r="V5">
-        <v>0.87877500000000008</v>
+        <v>0.90559999999999996</v>
       </c>
       <c r="W5">
-        <v>0.95027000000000006</v>
+        <v>0.93245</v>
       </c>
       <c r="X5">
-        <v>0.54209999999999992</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.91269999999999973</v>
+        <v>0.97530000000000017</v>
       </c>
       <c r="Z5">
-        <v>0.93005499999999997</v>
+        <v>0.9585999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.34072499999999994</v>
+        <v>0.34615000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.32789499999999994</v>
+        <v>0.51769999999999994</v>
       </c>
       <c r="AC5">
-        <v>0.79343500000000011</v>
+        <v>0.86739999999999995</v>
       </c>
       <c r="AD5">
-        <v>0.88466500000000003</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.38270499999999996</v>
+        <v>0.40674999999999989</v>
       </c>
       <c r="AF5">
-        <v>0.79131499999999988</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="AG5">
-        <v>0.69321904761904762</v>
+        <v>0.81900000000000006</v>
       </c>
       <c r="AH5">
-        <v>0.74472000000000005</v>
+        <v>0.81105000000000005</v>
       </c>
       <c r="AI5">
-        <v>0.52468499999999996</v>
+        <v>0.73420000000000007</v>
       </c>
       <c r="AJ5">
-        <v>0.68723500000000004</v>
+        <v>0.85325000000000006</v>
       </c>
       <c r="AK5">
-        <v>0.27406999999999998</v>
+        <v>0.4133</v>
       </c>
       <c r="AL5">
-        <v>0.95916000000000001</v>
+        <v>0.95360000000000011</v>
       </c>
       <c r="AM5">
-        <v>0.97958999999999996</v>
+        <v>0.95174999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.69549000000000005</v>
+        <v>0.82745000000000002</v>
       </c>
       <c r="AO5">
-        <v>0.62567499999999998</v>
+        <v>0.72114999999999996</v>
       </c>
       <c r="AP5">
-        <v>0.35298999999999997</v>
+        <v>0.48931500000000006</v>
       </c>
       <c r="AQ5">
-        <v>8.060500000000001E-2</v>
+        <v>0.23699999999999996</v>
       </c>
       <c r="AR5">
-        <v>0.23110999999999998</v>
+        <v>0.34479999999999994</v>
       </c>
       <c r="AS5">
-        <v>0.23975999999999997</v>
+        <v>0.39410000000000001</v>
       </c>
       <c r="AT5">
-        <v>0.74690999999999996</v>
+        <v>0.87224999999999997</v>
       </c>
       <c r="AU5">
-        <v>0.56462000000000001</v>
+        <v>0.79635000000000011</v>
       </c>
       <c r="AV5">
-        <v>0.33395000000000002</v>
+        <v>0.41825000000000001</v>
       </c>
       <c r="AW5">
-        <v>0.10262500000000001</v>
+        <v>0.29085000000000005</v>
       </c>
       <c r="AX5">
-        <v>0.35809047619047618</v>
+        <v>0.5552380952380952</v>
       </c>
       <c r="AY5">
-        <v>0.36120000000000002</v>
+        <v>0.41945000000000005</v>
       </c>
       <c r="AZ5">
-        <v>0.76068000000000002</v>
+        <v>0.87295</v>
       </c>
       <c r="BA5">
-        <v>0.97903499999999988</v>
+        <v>0.98685000000000012</v>
       </c>
       <c r="BB5">
-        <v>1.001865</v>
+        <v>1.0091499999999998</v>
       </c>
       <c r="BC5">
-        <v>0.74516000000000004</v>
+        <v>0.82925000000000004</v>
       </c>
       <c r="BD5">
-        <v>0.95075500000000002</v>
+        <v>0.97965000000000002</v>
       </c>
       <c r="BE5">
-        <v>0.44444999999999996</v>
+        <v>0.53689999999999993</v>
       </c>
       <c r="BF5">
-        <v>0.92228999999999972</v>
+        <v>0.94450000000000001</v>
       </c>
       <c r="BG5">
-        <v>0.46478999999999998</v>
+        <v>0.68124999999999991</v>
       </c>
       <c r="BH5">
-        <v>0.25073499999999999</v>
+        <v>0.31974999999999998</v>
       </c>
       <c r="BI5">
-        <v>0.63532999999999995</v>
+        <v>0.74819999999999987</v>
       </c>
       <c r="BJ5">
-        <v>0.34686500000000003</v>
+        <v>0.51401999999999992</v>
       </c>
       <c r="BK5">
-        <v>0.99360499999999985</v>
+        <v>1.0011000000000001</v>
       </c>
       <c r="BL5">
-        <v>0.57675500000000002</v>
+        <v>0.8970499999999999</v>
       </c>
       <c r="BM5">
-        <v>0.74238499999999996</v>
+        <v>0.96869999999999989</v>
       </c>
       <c r="BN5">
-        <v>0.75946499999999995</v>
+        <v>0.85384999999999978</v>
       </c>
       <c r="BO5">
-        <v>0.52004000000000006</v>
+        <v>0.68680000000000008</v>
       </c>
       <c r="BP5">
-        <v>0.34409499999999998</v>
+        <v>0.48572999999999994</v>
       </c>
       <c r="BQ5">
-        <v>0.26603809523809518</v>
+        <v>0.4797142857142857</v>
       </c>
       <c r="BR5">
-        <v>0.41403500000000004</v>
+        <v>0.56719999999999993</v>
       </c>
       <c r="BS5">
-        <v>0.18835000000000002</v>
+        <v>0.32768000000000003</v>
       </c>
       <c r="BT5">
-        <v>0.32812000000000002</v>
+        <v>0.36928499999999997</v>
       </c>
       <c r="BU5">
-        <v>0.16511500000000001</v>
+        <v>0.38355000000000006</v>
       </c>
       <c r="BV5">
-        <v>7.9424999999999996E-2</v>
+        <v>0.18519000000000002</v>
       </c>
       <c r="BW5">
-        <v>0.22687500000000002</v>
+        <v>0.21325</v>
       </c>
       <c r="BX5">
-        <v>4.7615000000000005E-2</v>
+        <v>0.16572999999999999</v>
       </c>
       <c r="BY5">
-        <v>6.2465000000000007E-2</v>
+        <v>0.10197500000000001</v>
       </c>
       <c r="BZ5">
-        <v>6.9047619047619052E-2</v>
+        <v>7.6047619047619044E-2</v>
       </c>
     </row>
     <row r="6" spans="1:78">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.67999999999999994</v>
+        <v>0.55481428571428582</v>
       </c>
       <c r="D6">
-        <v>0.66785000000000017</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="E6">
-        <v>0.53323500000000013</v>
+        <v>0.28586500000000004</v>
       </c>
       <c r="F6">
-        <v>0.60865000000000014</v>
+        <v>0.43233499999999997</v>
       </c>
       <c r="G6">
-        <v>0.64260000000000006</v>
+        <v>0.46384499999999995</v>
       </c>
       <c r="H6">
-        <v>0.71174999999999999</v>
+        <v>0.47184999999999999</v>
       </c>
       <c r="I6">
-        <v>0.43194999999999995</v>
+        <v>0.265955</v>
       </c>
       <c r="J6">
-        <v>0.71465000000000001</v>
+        <v>0.60279500000000008</v>
       </c>
       <c r="K6">
-        <v>0.49343000000000015</v>
+        <v>0.26262999999999997</v>
       </c>
       <c r="L6">
-        <v>0.75860000000000016</v>
+        <v>0.63467000000000007</v>
       </c>
       <c r="M6">
-        <v>0.55400000000000005</v>
+        <v>0.35281499999999999</v>
       </c>
       <c r="N6">
-        <v>0.83055000000000001</v>
+        <v>0.75589499999999998</v>
       </c>
       <c r="O6">
-        <v>0.84110000000000018</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="P6">
-        <v>0.67584999999999995</v>
+        <v>0.63327999999999995</v>
       </c>
       <c r="Q6">
-        <v>0.91164999999999985</v>
+        <v>0.88176500000000002</v>
       </c>
       <c r="R6">
-        <v>0.85639999999999983</v>
+        <v>0.74657499999999999</v>
       </c>
       <c r="S6">
-        <v>1.0033999999999998</v>
+        <v>0.99580000000000024</v>
       </c>
       <c r="T6">
-        <v>0.96150000000000002</v>
+        <v>0.92594999999999994</v>
       </c>
       <c r="U6">
-        <v>0.98354999999999981</v>
+        <v>0.98241999999999996</v>
       </c>
       <c r="V6">
-        <v>0.91160000000000019</v>
+        <v>0.87877500000000008</v>
       </c>
       <c r="W6">
-        <v>0.89055000000000017</v>
+        <v>0.95027000000000006</v>
       </c>
       <c r="X6">
-        <v>0.68884999999999996</v>
+        <v>0.54209999999999992</v>
       </c>
       <c r="Y6">
-        <v>0.92380000000000018</v>
+        <v>0.91269999999999973</v>
       </c>
       <c r="Z6">
-        <v>0.97020000000000017</v>
+        <v>0.93005499999999997</v>
       </c>
       <c r="AA6">
-        <v>0.47689999999999994</v>
+        <v>0.34072499999999994</v>
       </c>
       <c r="AB6">
-        <v>0.53305000000000002</v>
+        <v>0.32789499999999994</v>
       </c>
       <c r="AC6">
-        <v>0.93840000000000001</v>
+        <v>0.79343500000000011</v>
       </c>
       <c r="AD6">
-        <v>0.97629999999999995</v>
+        <v>0.88466500000000003</v>
       </c>
       <c r="AE6">
-        <v>0.48504999999999993</v>
+        <v>0.38270499999999996</v>
       </c>
       <c r="AF6">
-        <v>0.9</v>
+        <v>0.79131499999999988</v>
       </c>
       <c r="AG6">
-        <v>0.78719047619047633</v>
+        <v>0.69321904761904762</v>
       </c>
       <c r="AH6">
-        <v>0.85890000000000022</v>
+        <v>0.74472000000000005</v>
       </c>
       <c r="AI6">
-        <v>0.75730000000000008</v>
+        <v>0.52468499999999996</v>
       </c>
       <c r="AJ6">
-        <v>0.84025000000000016</v>
+        <v>0.68723500000000004</v>
       </c>
       <c r="AK6">
-        <v>0.36315000000000008</v>
+        <v>0.27406999999999998</v>
       </c>
       <c r="AL6">
-        <v>0.9860000000000001</v>
+        <v>0.95916000000000001</v>
       </c>
       <c r="AM6">
-        <v>1.0407499999999998</v>
+        <v>0.97958999999999996</v>
       </c>
       <c r="AN6">
-        <v>0.81829999999999981</v>
+        <v>0.69549000000000005</v>
       </c>
       <c r="AO6">
-        <v>0.71084999999999998</v>
+        <v>0.62567499999999998</v>
       </c>
       <c r="AP6">
-        <v>0.56584999999999996</v>
+        <v>0.35298999999999997</v>
       </c>
       <c r="AQ6">
-        <v>0.29220000000000002</v>
+        <v>8.060500000000001E-2</v>
       </c>
       <c r="AR6">
-        <v>0.37805</v>
+        <v>0.23110999999999998</v>
       </c>
       <c r="AS6">
-        <v>0.35709999999999997</v>
+        <v>0.23975999999999997</v>
       </c>
       <c r="AT6">
-        <v>0.84435000000000004</v>
+        <v>0.74690999999999996</v>
       </c>
       <c r="AU6">
-        <v>0.72659999999999991</v>
+        <v>0.56462000000000001</v>
       </c>
       <c r="AV6">
-        <v>0.29414999999999997</v>
+        <v>0.33395000000000002</v>
       </c>
       <c r="AW6">
-        <v>0.24919000000000002</v>
+        <v>0.10262500000000001</v>
       </c>
       <c r="AX6">
-        <v>0.55285714285714294</v>
+        <v>0.35809047619047618</v>
       </c>
       <c r="AY6">
-        <v>0.52465000000000006</v>
+        <v>0.36120000000000002</v>
       </c>
       <c r="AZ6">
-        <v>0.86485000000000023</v>
+        <v>0.76068000000000002</v>
       </c>
       <c r="BA6">
-        <v>0.98440000000000016</v>
+        <v>0.97903499999999988</v>
       </c>
       <c r="BB6">
-        <v>0.96704999999999985</v>
+        <v>1.001865</v>
       </c>
       <c r="BC6">
-        <v>0.83190000000000008</v>
+        <v>0.74516000000000004</v>
       </c>
       <c r="BD6">
-        <v>0.98569999999999991</v>
+        <v>0.95075500000000002</v>
       </c>
       <c r="BE6">
-        <v>0.45119999999999993</v>
+        <v>0.44444999999999996</v>
       </c>
       <c r="BF6">
-        <v>0.94964999999999988</v>
+        <v>0.92228999999999972</v>
       </c>
       <c r="BG6">
-        <v>0.57399999999999995</v>
+        <v>0.46478999999999998</v>
       </c>
       <c r="BH6">
-        <v>0.41239999999999999</v>
+        <v>0.25073499999999999</v>
       </c>
       <c r="BI6">
-        <v>0.69134999999999991</v>
+        <v>0.63532999999999995</v>
       </c>
       <c r="BJ6">
-        <v>0.83140000000000003</v>
+        <v>0.34686500000000003</v>
       </c>
       <c r="BK6">
-        <v>0.96584999999999988</v>
+        <v>0.99360499999999985</v>
       </c>
       <c r="BL6">
-        <v>0.69464999999999977</v>
+        <v>0.57675500000000002</v>
       </c>
       <c r="BM6">
-        <v>0.73225000000000007</v>
+        <v>0.74238499999999996</v>
       </c>
       <c r="BN6">
-        <v>0.81600000000000006</v>
+        <v>0.75946499999999995</v>
       </c>
       <c r="BO6">
-        <v>0.68214999999999992</v>
+        <v>0.52004000000000006</v>
       </c>
       <c r="BP6">
-        <v>0.49436500000000005</v>
+        <v>0.34409499999999998</v>
       </c>
       <c r="BQ6">
-        <v>0.50423809523809515</v>
+        <v>0.26603809523809518</v>
       </c>
       <c r="BR6">
-        <v>0.54489999999999994</v>
+        <v>0.41403500000000004</v>
       </c>
       <c r="BS6">
-        <v>0.46529999999999994</v>
+        <v>0.18835000000000002</v>
       </c>
       <c r="BT6">
-        <v>0.27135000000000004</v>
+        <v>0.32812000000000002</v>
       </c>
       <c r="BU6">
-        <v>0.40350000000000003</v>
+        <v>0.16511500000000001</v>
       </c>
       <c r="BV6">
-        <v>0.34584000000000004</v>
+        <v>7.9424999999999996E-2</v>
       </c>
       <c r="BW6">
-        <v>0.35755000000000003</v>
+        <v>0.22687500000000002</v>
       </c>
       <c r="BX6">
-        <v>0.29352499999999998</v>
+        <v>4.7615000000000005E-2</v>
       </c>
       <c r="BY6">
-        <v>0.42154000000000008</v>
+        <v>6.2465000000000007E-2</v>
       </c>
       <c r="BZ6">
-        <v>4.8095238095238094E-2</v>
+        <v>6.9047619047619052E-2</v>
       </c>
     </row>
     <row r="7" spans="1:78">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="D7">
+        <v>0.66785000000000017</v>
+      </c>
+      <c r="E7">
+        <v>0.53323500000000013</v>
+      </c>
+      <c r="F7">
+        <v>0.60865000000000014</v>
+      </c>
+      <c r="G7">
+        <v>0.64260000000000006</v>
+      </c>
+      <c r="H7">
+        <v>0.71174999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.43194999999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.71465000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.49343000000000015</v>
+      </c>
+      <c r="L7">
+        <v>0.75860000000000016</v>
+      </c>
+      <c r="M7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="N7">
+        <v>0.83055000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.84110000000000018</v>
+      </c>
+      <c r="P7">
+        <v>0.67584999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0.91164999999999985</v>
+      </c>
+      <c r="R7">
+        <v>0.85639999999999983</v>
+      </c>
+      <c r="S7">
+        <v>1.0033999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.98354999999999981</v>
+      </c>
+      <c r="V7">
+        <v>0.91160000000000019</v>
+      </c>
+      <c r="W7">
+        <v>0.89055000000000017</v>
+      </c>
+      <c r="X7">
+        <v>0.68884999999999996</v>
+      </c>
+      <c r="Y7">
+        <v>0.92380000000000018</v>
+      </c>
+      <c r="Z7">
+        <v>0.97020000000000017</v>
+      </c>
+      <c r="AA7">
+        <v>0.47689999999999994</v>
+      </c>
+      <c r="AB7">
+        <v>0.53305000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="AE7">
+        <v>0.48504999999999993</v>
+      </c>
+      <c r="AF7">
+        <v>0.9</v>
+      </c>
+      <c r="AG7">
+        <v>0.78719047619047633</v>
+      </c>
+      <c r="AH7">
+        <v>0.85890000000000022</v>
+      </c>
+      <c r="AI7">
+        <v>0.75730000000000008</v>
+      </c>
+      <c r="AJ7">
+        <v>0.84025000000000016</v>
+      </c>
+      <c r="AK7">
+        <v>0.36315000000000008</v>
+      </c>
+      <c r="AL7">
+        <v>0.9860000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>1.0407499999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.81829999999999981</v>
+      </c>
+      <c r="AO7">
+        <v>0.71084999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.56584999999999996</v>
+      </c>
+      <c r="AQ7">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="AR7">
+        <v>0.37805</v>
+      </c>
+      <c r="AS7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AT7">
+        <v>0.84435000000000004</v>
+      </c>
+      <c r="AU7">
+        <v>0.72659999999999991</v>
+      </c>
+      <c r="AV7">
+        <v>0.29414999999999997</v>
+      </c>
+      <c r="AW7">
+        <v>0.24919000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>0.55285714285714294</v>
+      </c>
+      <c r="AY7">
+        <v>0.52465000000000006</v>
+      </c>
+      <c r="AZ7">
+        <v>0.86485000000000023</v>
+      </c>
+      <c r="BA7">
+        <v>0.98440000000000016</v>
+      </c>
+      <c r="BB7">
+        <v>0.96704999999999985</v>
+      </c>
+      <c r="BC7">
+        <v>0.83190000000000008</v>
+      </c>
+      <c r="BD7">
+        <v>0.98569999999999991</v>
+      </c>
+      <c r="BE7">
+        <v>0.45119999999999993</v>
+      </c>
+      <c r="BF7">
+        <v>0.94964999999999988</v>
+      </c>
+      <c r="BG7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="BH7">
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="BI7">
+        <v>0.69134999999999991</v>
+      </c>
+      <c r="BJ7">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="BK7">
+        <v>0.96584999999999988</v>
+      </c>
+      <c r="BL7">
+        <v>0.69464999999999977</v>
+      </c>
+      <c r="BM7">
+        <v>0.73225000000000007</v>
+      </c>
+      <c r="BN7">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="BO7">
+        <v>0.68214999999999992</v>
+      </c>
+      <c r="BP7">
+        <v>0.49436500000000005</v>
+      </c>
+      <c r="BQ7">
+        <v>0.50423809523809515</v>
+      </c>
+      <c r="BR7">
+        <v>0.54489999999999994</v>
+      </c>
+      <c r="BS7">
+        <v>0.46529999999999994</v>
+      </c>
+      <c r="BT7">
+        <v>0.27135000000000004</v>
+      </c>
+      <c r="BU7">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.34584000000000004</v>
+      </c>
+      <c r="BW7">
+        <v>0.35755000000000003</v>
+      </c>
+      <c r="BX7">
+        <v>0.29352499999999998</v>
+      </c>
+      <c r="BY7">
+        <v>0.42154000000000008</v>
+      </c>
+      <c r="BZ7">
+        <v>4.8095238095238094E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>0.58171428571428563</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.49980000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>0.36417000000000005</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.47770499999999999</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>0.46762500000000012</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0.55844999999999989</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>0.33962999999999999</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>0.62354999999999994</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.31565000000000004</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.62877999999999989</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>0.38655</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>0.73175000000000012</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>0.69375000000000009</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>0.58639999999999981</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>0.89781999999999973</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <v>0.71531500000000003</v>
       </c>
-      <c r="S7">
+      <c r="S8">
         <v>0.99776500000000001</v>
       </c>
-      <c r="T7">
+      <c r="T8">
         <v>0.92954999999999988</v>
       </c>
-      <c r="U7">
+      <c r="U8">
         <v>0.97350000000000014</v>
       </c>
-      <c r="V7">
+      <c r="V8">
         <v>0.88460499999999997</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <v>0.88159999999999994</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <v>0.57337499999999997</v>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <v>0.88475000000000004</v>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <v>0.93469999999999998</v>
       </c>
-      <c r="AA7">
+      <c r="AA8">
         <v>0.45979999999999988</v>
       </c>
-      <c r="AB7">
+      <c r="AB8">
         <v>0.35431500000000005</v>
       </c>
-      <c r="AC7">
+      <c r="AC8">
         <v>0.89980000000000016</v>
       </c>
-      <c r="AD7">
+      <c r="AD8">
         <v>0.96675</v>
       </c>
-      <c r="AE7">
+      <c r="AE8">
         <v>0.34217500000000001</v>
       </c>
-      <c r="AF7">
+      <c r="AF8">
         <v>0.83940000000000003</v>
       </c>
-      <c r="AG7">
+      <c r="AG8">
         <v>0.6754904761904762</v>
       </c>
-      <c r="AH7">
+      <c r="AH8">
         <v>0.78644500000000006</v>
       </c>
-      <c r="AI7">
+      <c r="AI8">
         <v>0.55159999999999998</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ8">
         <v>0.64529999999999998</v>
       </c>
-      <c r="AK7">
+      <c r="AK8">
         <v>0.25960999999999995</v>
       </c>
-      <c r="AL7">
+      <c r="AL8">
         <v>0.96460000000000012</v>
       </c>
-      <c r="AM7">
+      <c r="AM8">
         <v>1.0422250000000002</v>
       </c>
-      <c r="AN7">
+      <c r="AN8">
         <v>0.68574999999999997</v>
       </c>
-      <c r="AO7">
+      <c r="AO8">
         <v>0.61020000000000008</v>
       </c>
-      <c r="AP7">
+      <c r="AP8">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ8">
         <v>0.16438999999999998</v>
       </c>
-      <c r="AR7">
+      <c r="AR8">
         <v>0.34009999999999996</v>
       </c>
-      <c r="AS7">
+      <c r="AS8">
         <v>0.29057499999999997</v>
       </c>
-      <c r="AT7">
+      <c r="AT8">
         <v>0.65724000000000005</v>
       </c>
-      <c r="AU7">
+      <c r="AU8">
         <v>0.58194999999999997</v>
       </c>
-      <c r="AV7">
+      <c r="AV8">
         <v>0.15697</v>
       </c>
-      <c r="AW7">
+      <c r="AW8">
         <v>8.1135000000000013E-2</v>
       </c>
-      <c r="AX7">
+      <c r="AX8">
         <v>0.40680476190476189</v>
       </c>
-      <c r="AY7">
+      <c r="AY8">
         <v>0.379</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ8">
         <v>0.74214999999999998</v>
       </c>
-      <c r="BA7">
+      <c r="BA8">
         <v>0.95719999999999994</v>
       </c>
-      <c r="BB7">
+      <c r="BB8">
         <v>0.97610000000000008</v>
       </c>
-      <c r="BC7">
+      <c r="BC8">
         <v>0.75407000000000002</v>
       </c>
-      <c r="BD7">
+      <c r="BD8">
         <v>0.96425000000000016</v>
       </c>
-      <c r="BE7">
+      <c r="BE8">
         <v>0.45629999999999998</v>
       </c>
-      <c r="BF7">
+      <c r="BF8">
         <v>0.95130000000000003</v>
       </c>
-      <c r="BG7">
+      <c r="BG8">
         <v>0.38069999999999993</v>
       </c>
-      <c r="BH7">
+      <c r="BH8">
         <v>0.24032000000000001</v>
       </c>
-      <c r="BI7">
+      <c r="BI8">
         <v>0.55985000000000007</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ8">
         <v>0.61170000000000002</v>
       </c>
-      <c r="BK7">
+      <c r="BK8">
         <v>0.96219999999999994</v>
       </c>
-      <c r="BL7">
+      <c r="BL8">
         <v>0.49529999999999996</v>
       </c>
-      <c r="BM7">
+      <c r="BM8">
         <v>0.63217000000000001</v>
       </c>
-      <c r="BN7">
+      <c r="BN8">
         <v>0.74130499999999999</v>
       </c>
-      <c r="BO7">
+      <c r="BO8">
         <v>0.45340999999999998</v>
       </c>
-      <c r="BP7">
+      <c r="BP8">
         <v>0.31881999999999999</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ8">
         <v>0.2033047619047619</v>
       </c>
-      <c r="BR7">
+      <c r="BR8">
         <v>0.36538500000000007</v>
       </c>
-      <c r="BS7">
+      <c r="BS8">
         <v>0.25732999999999995</v>
       </c>
-      <c r="BT7">
+      <c r="BT8">
         <v>0.17563500000000001</v>
       </c>
-      <c r="BU7">
+      <c r="BU8">
         <v>0.19098500000000002</v>
       </c>
-      <c r="BV7">
+      <c r="BV8">
         <v>0.35844999999999994</v>
       </c>
-      <c r="BW7">
+      <c r="BW8">
         <v>0.257745</v>
       </c>
-      <c r="BX7">
+      <c r="BX8">
         <v>0.13707499999999997</v>
       </c>
-      <c r="BY7">
+      <c r="BY8">
         <v>5.1104999999999998E-2</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ8">
         <v>4.0761904761904763E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="30">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:78">
+      <c r="G9">
+        <f>AVERAGE(G5:G8)</f>
+        <v>0.55174250000000002</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(L5:L8)</f>
+        <v>0.68763750000000012</v>
+      </c>
+      <c r="AB9">
+        <f>AVERAGE(AB5:AB8)</f>
+        <v>0.43323999999999996</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0.55174250000000002</v>
+      </c>
+      <c r="AH9">
+        <f>AVERAGE(AH5:AH8)</f>
+        <v>0.80027875000000004</v>
+      </c>
+      <c r="AW9">
+        <f>AVERAGE(AW5:AW8)</f>
+        <v>0.18095</v>
+      </c>
+      <c r="BL9">
+        <f>AVERAGE(BL5:BL8)</f>
+        <v>0.66593874999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" ht="30">
+      <c r="A10" s="10" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:78">
-      <c r="A10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:78">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0.65101428571428577</v>
-      </c>
-      <c r="D11">
-        <v>0.52262000000000008</v>
-      </c>
-      <c r="E11">
-        <v>0.51225000000000009</v>
-      </c>
-      <c r="F11">
-        <v>0.49725000000000003</v>
-      </c>
-      <c r="G11">
-        <v>0.63139999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.65865000000000007</v>
-      </c>
-      <c r="I11">
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="J11">
-        <v>0.70279999999999998</v>
-      </c>
-      <c r="K11">
-        <v>0.5072000000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.72684999999999989</v>
-      </c>
-      <c r="M11">
-        <v>0.47870000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.83625000000000005</v>
-      </c>
-      <c r="O11">
-        <v>0.7339</v>
-      </c>
-      <c r="P11">
-        <v>0.79074999999999984</v>
-      </c>
-      <c r="Q11">
-        <v>0.91644999999999988</v>
-      </c>
-      <c r="R11">
-        <v>0.8217000000000001</v>
-      </c>
-      <c r="S11">
-        <v>0.9906999999999998</v>
-      </c>
-      <c r="T11">
-        <v>0.94640000000000024</v>
-      </c>
-      <c r="U11">
-        <v>0.97494999999999976</v>
-      </c>
-      <c r="V11">
-        <v>0.90305000000000002</v>
-      </c>
-      <c r="W11">
-        <v>0.93035000000000012</v>
-      </c>
-      <c r="X11">
-        <v>0.68604999999999983</v>
-      </c>
-      <c r="Y11">
-        <v>0.97239999999999982</v>
-      </c>
-      <c r="Z11">
-        <v>0.95679999999999998</v>
-      </c>
-      <c r="AA11">
-        <v>0.3458</v>
-      </c>
-      <c r="AB11">
-        <v>0.51679999999999993</v>
-      </c>
-      <c r="AC11">
-        <v>0.86474999999999991</v>
-      </c>
-      <c r="AD11">
-        <v>0.89975000000000005</v>
-      </c>
-      <c r="AE11">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="AF11">
-        <v>0.86785000000000001</v>
-      </c>
-      <c r="AG11">
-        <v>0.81747619047619036</v>
-      </c>
-      <c r="AH11">
-        <v>0.80920000000000025</v>
-      </c>
-      <c r="AI11">
-        <v>0.73245000000000005</v>
-      </c>
-      <c r="AJ11">
-        <v>0.85145000000000015</v>
-      </c>
-      <c r="AK11">
-        <v>0.41270000000000007</v>
-      </c>
-      <c r="AL11">
-        <v>0.95150000000000001</v>
-      </c>
-      <c r="AM11">
-        <v>0.94920000000000004</v>
-      </c>
-      <c r="AN11">
-        <v>0.82580000000000009</v>
-      </c>
-      <c r="AO11">
-        <v>0.71970000000000001</v>
-      </c>
-      <c r="AP11">
-        <v>0.48805000000000004</v>
-      </c>
-      <c r="AQ11">
-        <v>0.23658999999999994</v>
-      </c>
-      <c r="AR11">
-        <v>0.34415000000000007</v>
-      </c>
-      <c r="AS11">
-        <v>0.39290000000000003</v>
-      </c>
-      <c r="AT11">
-        <v>0.86964999999999981</v>
-      </c>
-      <c r="AU11">
-        <v>0.79414999999999991</v>
-      </c>
-      <c r="AV11">
-        <v>0.41720000000000007</v>
-      </c>
-      <c r="AW11">
-        <v>0.29010000000000002</v>
-      </c>
-      <c r="AX11">
-        <v>0.5540952380952382</v>
-      </c>
-      <c r="AY11">
-        <v>0.41870000000000002</v>
-      </c>
-      <c r="AZ11">
-        <v>0.87085000000000012</v>
-      </c>
-      <c r="BA11">
-        <v>0.98440000000000027</v>
-      </c>
-      <c r="BB11">
-        <v>1.0062</v>
-      </c>
-      <c r="BC11">
-        <v>0.82710000000000006</v>
-      </c>
-      <c r="BD11">
-        <v>0.97814999999999996</v>
-      </c>
-      <c r="BE11">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="BF11">
-        <v>0.94259999999999988</v>
-      </c>
-      <c r="BG11">
-        <v>0.68015000000000003</v>
-      </c>
-      <c r="BH11">
-        <v>0.31914999999999999</v>
-      </c>
-      <c r="BI11">
-        <v>0.74704999999999999</v>
-      </c>
-      <c r="BJ11">
-        <v>0.51331499999999997</v>
-      </c>
-      <c r="BK11">
-        <v>0.99855000000000005</v>
-      </c>
-      <c r="BL11">
-        <v>0.89470000000000005</v>
-      </c>
-      <c r="BM11">
-        <v>0.96605000000000008</v>
-      </c>
-      <c r="BN11">
-        <v>0.8526999999999999</v>
-      </c>
-      <c r="BO11">
-        <v>0.6853499999999999</v>
-      </c>
-      <c r="BP11">
-        <v>0.4849150000000001</v>
-      </c>
-      <c r="BQ11">
-        <v>0.47885714285714281</v>
-      </c>
-      <c r="BR11">
-        <v>0.56620000000000004</v>
-      </c>
-      <c r="BS11">
-        <v>0.32701999999999998</v>
-      </c>
-      <c r="BT11">
-        <v>0.36837500000000001</v>
-      </c>
-      <c r="BU11">
-        <v>0.38269999999999993</v>
-      </c>
-      <c r="BV11">
-        <v>0.18477000000000002</v>
-      </c>
-      <c r="BW11">
-        <v>0.21280000000000002</v>
-      </c>
-      <c r="BX11">
-        <v>0.16531499999999996</v>
-      </c>
-      <c r="BY11">
-        <v>0.10164500000000001</v>
-      </c>
-      <c r="BZ11">
-        <v>7.5904761904761892E-2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:78">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.55571904761904756</v>
+        <v>0.65101428571428577</v>
       </c>
       <c r="D12">
-        <v>0.44171000000000005</v>
+        <v>0.52262000000000008</v>
       </c>
       <c r="E12">
-        <v>0.28622500000000006</v>
+        <v>0.51225000000000009</v>
       </c>
       <c r="F12">
-        <v>0.43314000000000002</v>
+        <v>0.49725000000000003</v>
       </c>
       <c r="G12">
-        <v>0.46461000000000013</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="H12">
-        <v>0.47285499999999991</v>
+        <v>0.65865000000000007</v>
       </c>
       <c r="I12">
-        <v>0.26652500000000001</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="J12">
-        <v>0.60346999999999995</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="K12">
-        <v>0.26294499999999998</v>
+        <v>0.5072000000000001</v>
       </c>
       <c r="L12">
-        <v>0.63577499999999998</v>
+        <v>0.72684999999999989</v>
       </c>
       <c r="M12">
-        <v>0.35367499999999996</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="N12">
-        <v>0.75760499999999997</v>
+        <v>0.83625000000000005</v>
       </c>
       <c r="O12">
-        <v>0.69455</v>
+        <v>0.7339</v>
       </c>
       <c r="P12">
-        <v>0.63429499999999994</v>
+        <v>0.79074999999999984</v>
       </c>
       <c r="Q12">
-        <v>0.88357499999999978</v>
+        <v>0.91644999999999988</v>
       </c>
       <c r="R12">
-        <v>0.74708999999999981</v>
+        <v>0.8217000000000001</v>
       </c>
       <c r="S12">
-        <v>0.99810500000000013</v>
+        <v>0.9906999999999998</v>
       </c>
       <c r="T12">
-        <v>0.92735500000000004</v>
+        <v>0.94640000000000024</v>
       </c>
       <c r="U12">
-        <v>0.98353000000000002</v>
+        <v>0.97494999999999976</v>
       </c>
       <c r="V12">
-        <v>0.88028500000000032</v>
+        <v>0.90305000000000002</v>
       </c>
       <c r="W12">
-        <v>0.95223000000000013</v>
+        <v>0.93035000000000012</v>
       </c>
       <c r="X12">
-        <v>0.54420500000000016</v>
+        <v>0.68604999999999983</v>
       </c>
       <c r="Y12">
-        <v>0.91555500000000001</v>
+        <v>0.97239999999999982</v>
       </c>
       <c r="Z12">
-        <v>0.93270999999999982</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="AA12">
-        <v>0.34109</v>
+        <v>0.3458</v>
       </c>
       <c r="AB12">
-        <v>0.32901499999999995</v>
+        <v>0.51679999999999993</v>
       </c>
       <c r="AC12">
-        <v>0.79594000000000009</v>
+        <v>0.86474999999999991</v>
       </c>
       <c r="AD12">
-        <v>0.88556999999999986</v>
+        <v>0.89975000000000005</v>
       </c>
       <c r="AE12">
-        <v>0.38362000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="AF12">
-        <v>0.79393000000000002</v>
+        <v>0.86785000000000001</v>
       </c>
       <c r="AG12">
-        <v>0.69455714285714287</v>
+        <v>0.81747619047619036</v>
       </c>
       <c r="AH12">
-        <v>0.74623499999999998</v>
+        <v>0.80920000000000025</v>
       </c>
       <c r="AI12">
-        <v>0.52555500000000011</v>
+        <v>0.73245000000000005</v>
       </c>
       <c r="AJ12">
-        <v>0.68833999999999995</v>
+        <v>0.85145000000000015</v>
       </c>
       <c r="AK12">
-        <v>0.27493999999999996</v>
+        <v>0.41270000000000007</v>
       </c>
       <c r="AL12">
-        <v>0.96051500000000023</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="AM12">
-        <v>0.98129500000000003</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="AN12">
-        <v>0.69674999999999998</v>
+        <v>0.82580000000000009</v>
       </c>
       <c r="AO12">
-        <v>0.62673500000000004</v>
+        <v>0.71970000000000001</v>
       </c>
       <c r="AP12">
-        <v>0.35370500000000005</v>
+        <v>0.48805000000000004</v>
       </c>
       <c r="AQ12">
-        <v>8.0769999999999995E-2</v>
+        <v>0.23658999999999994</v>
       </c>
       <c r="AR12">
-        <v>0.23146499999999998</v>
+        <v>0.34415000000000007</v>
       </c>
       <c r="AS12">
-        <v>0.23997499999999999</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="AT12">
-        <v>0.748915</v>
+        <v>0.86964999999999981</v>
       </c>
       <c r="AU12">
-        <v>0.56542999999999999</v>
+        <v>0.79414999999999991</v>
       </c>
       <c r="AV12">
-        <v>0.33435000000000004</v>
+        <v>0.41720000000000007</v>
       </c>
       <c r="AW12">
-        <v>0.10277</v>
+        <v>0.29010000000000002</v>
       </c>
       <c r="AX12">
-        <v>0.3588238095238096</v>
+        <v>0.5540952380952382</v>
       </c>
       <c r="AY12">
-        <v>0.36185</v>
+        <v>0.41870000000000002</v>
       </c>
       <c r="AZ12">
-        <v>0.76193500000000003</v>
+        <v>0.87085000000000012</v>
       </c>
       <c r="BA12">
-        <v>0.98063999999999996</v>
+        <v>0.98440000000000027</v>
       </c>
       <c r="BB12">
-        <v>1.0031199999999998</v>
+        <v>1.0062</v>
       </c>
       <c r="BC12">
-        <v>0.74641499999999994</v>
+        <v>0.82710000000000006</v>
       </c>
       <c r="BD12">
-        <v>0.9521599999999999</v>
+        <v>0.97814999999999996</v>
       </c>
       <c r="BE12">
-        <v>0.44539999999999996</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="BF12">
-        <v>0.9235000000000001</v>
+        <v>0.94259999999999988</v>
       </c>
       <c r="BG12">
-        <v>0.46565000000000001</v>
+        <v>0.68015000000000003</v>
       </c>
       <c r="BH12">
-        <v>0.251245</v>
+        <v>0.31914999999999999</v>
       </c>
       <c r="BI12">
-        <v>0.63619000000000003</v>
+        <v>0.74704999999999999</v>
       </c>
       <c r="BJ12">
-        <v>0.34719500000000003</v>
+        <v>0.51331499999999997</v>
       </c>
       <c r="BK12">
-        <v>0.99551000000000012</v>
+        <v>0.99855000000000005</v>
       </c>
       <c r="BL12">
-        <v>0.57790999999999992</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="BM12">
-        <v>0.74358999999999997</v>
+        <v>0.96605000000000008</v>
       </c>
       <c r="BN12">
-        <v>0.76241999999999988</v>
+        <v>0.8526999999999999</v>
       </c>
       <c r="BO12">
-        <v>0.52059499999999992</v>
+        <v>0.6853499999999999</v>
       </c>
       <c r="BP12">
-        <v>0.34486000000000006</v>
+        <v>0.4849150000000001</v>
       </c>
       <c r="BQ12">
-        <v>0.26670952380952384</v>
+        <v>0.47885714285714281</v>
       </c>
       <c r="BR12">
-        <v>0.41464999999999996</v>
+        <v>0.56620000000000004</v>
       </c>
       <c r="BS12">
-        <v>0.188635</v>
+        <v>0.32701999999999998</v>
       </c>
       <c r="BT12">
-        <v>0.32933500000000004</v>
+        <v>0.36837500000000001</v>
       </c>
       <c r="BU12">
-        <v>0.16540000000000002</v>
+        <v>0.38269999999999993</v>
       </c>
       <c r="BV12">
-        <v>7.9545000000000005E-2</v>
+        <v>0.18477000000000002</v>
       </c>
       <c r="BW12">
-        <v>0.22698000000000002</v>
+        <v>0.21280000000000002</v>
       </c>
       <c r="BX12">
-        <v>4.7649999999999998E-2</v>
+        <v>0.16531499999999996</v>
       </c>
       <c r="BY12">
-        <v>6.2674999999999995E-2</v>
+        <v>0.10164500000000001</v>
       </c>
       <c r="BZ12">
-        <v>6.9142857142857145E-2</v>
+        <v>7.5904761904761892E-2</v>
       </c>
     </row>
     <row r="13" spans="1:78">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.68071428571428583</v>
+        <v>0.55571904761904756</v>
       </c>
       <c r="D13">
-        <v>0.66880000000000017</v>
+        <v>0.44171000000000005</v>
       </c>
       <c r="E13">
-        <v>0.53378999999999999</v>
+        <v>0.28622500000000006</v>
       </c>
       <c r="F13">
-        <v>0.60915000000000008</v>
+        <v>0.43314000000000002</v>
       </c>
       <c r="G13">
-        <v>0.64329999999999998</v>
+        <v>0.46461000000000013</v>
       </c>
       <c r="H13">
-        <v>0.71250000000000002</v>
+        <v>0.47285499999999991</v>
       </c>
       <c r="I13">
-        <v>0.43325000000000002</v>
+        <v>0.26652500000000001</v>
       </c>
       <c r="J13">
-        <v>0.71515000000000006</v>
+        <v>0.60346999999999995</v>
       </c>
       <c r="K13">
-        <v>0.49403500000000006</v>
+        <v>0.26294499999999998</v>
       </c>
       <c r="L13">
-        <v>0.75940000000000007</v>
+        <v>0.63577499999999998</v>
       </c>
       <c r="M13">
-        <v>0.55459999999999998</v>
+        <v>0.35367499999999996</v>
       </c>
       <c r="N13">
-        <v>0.83180000000000009</v>
+        <v>0.75760499999999997</v>
       </c>
       <c r="O13">
-        <v>0.84194999999999998</v>
+        <v>0.69455</v>
       </c>
       <c r="P13">
-        <v>0.67635000000000001</v>
+        <v>0.63429499999999994</v>
       </c>
       <c r="Q13">
-        <v>0.91215000000000013</v>
+        <v>0.88357499999999978</v>
       </c>
       <c r="R13">
-        <v>0.85734999999999972</v>
+        <v>0.74708999999999981</v>
       </c>
       <c r="S13">
-        <v>1.0049999999999999</v>
+        <v>0.99810500000000013</v>
       </c>
       <c r="T13">
-        <v>0.96365000000000001</v>
+        <v>0.92735500000000004</v>
       </c>
       <c r="U13">
-        <v>0.98539999999999994</v>
+        <v>0.98353000000000002</v>
       </c>
       <c r="V13">
-        <v>0.91225000000000023</v>
+        <v>0.88028500000000032</v>
       </c>
       <c r="W13">
-        <v>0.89124999999999999</v>
+        <v>0.95223000000000013</v>
       </c>
       <c r="X13">
-        <v>0.68934999999999991</v>
+        <v>0.54420500000000016</v>
       </c>
       <c r="Y13">
-        <v>0.92464999999999997</v>
+        <v>0.91555500000000001</v>
       </c>
       <c r="Z13">
-        <v>0.97130000000000005</v>
+        <v>0.93270999999999982</v>
       </c>
       <c r="AA13">
-        <v>0.47794999999999999</v>
+        <v>0.34109</v>
       </c>
       <c r="AB13">
-        <v>0.53415000000000001</v>
+        <v>0.32901499999999995</v>
       </c>
       <c r="AC13">
-        <v>0.93900000000000006</v>
+        <v>0.79594000000000009</v>
       </c>
       <c r="AD13">
-        <v>0.97814999999999996</v>
+        <v>0.88556999999999986</v>
       </c>
       <c r="AE13">
-        <v>0.48535000000000006</v>
+        <v>0.38362000000000002</v>
       </c>
       <c r="AF13">
-        <v>0.90219999999999989</v>
+        <v>0.79393000000000002</v>
       </c>
       <c r="AG13">
-        <v>0.78790476190476189</v>
+        <v>0.69455714285714287</v>
       </c>
       <c r="AH13">
-        <v>0.85969999999999991</v>
+        <v>0.74623499999999998</v>
       </c>
       <c r="AI13">
-        <v>0.7581</v>
+        <v>0.52555500000000011</v>
       </c>
       <c r="AJ13">
-        <v>0.84130000000000005</v>
+        <v>0.68833999999999995</v>
       </c>
       <c r="AK13">
-        <v>0.36335000000000006</v>
+        <v>0.27493999999999996</v>
       </c>
       <c r="AL13">
-        <v>0.9869</v>
+        <v>0.96051500000000023</v>
       </c>
       <c r="AM13">
-        <v>1.04175</v>
+        <v>0.98129500000000003</v>
       </c>
       <c r="AN13">
-        <v>0.81920000000000004</v>
+        <v>0.69674999999999998</v>
       </c>
       <c r="AO13">
-        <v>0.71160000000000001</v>
+        <v>0.62673500000000004</v>
       </c>
       <c r="AP13">
-        <v>0.5665</v>
+        <v>0.35370500000000005</v>
       </c>
       <c r="AQ13">
-        <v>0.29250000000000004</v>
+        <v>8.0769999999999995E-2</v>
       </c>
       <c r="AR13">
-        <v>0.37830000000000003</v>
+        <v>0.23146499999999998</v>
       </c>
       <c r="AS13">
-        <v>0.35730000000000001</v>
+        <v>0.23997499999999999</v>
       </c>
       <c r="AT13">
-        <v>0.84500000000000031</v>
+        <v>0.748915</v>
       </c>
       <c r="AU13">
-        <v>0.72709999999999986</v>
+        <v>0.56542999999999999</v>
       </c>
       <c r="AV13">
-        <v>0.29439999999999994</v>
+        <v>0.33435000000000004</v>
       </c>
       <c r="AW13">
-        <v>0.24949499999999997</v>
+        <v>0.10277</v>
       </c>
       <c r="AX13">
-        <v>0.55347619047619057</v>
+        <v>0.3588238095238096</v>
       </c>
       <c r="AY13">
-        <v>0.52539999999999998</v>
+        <v>0.36185</v>
       </c>
       <c r="AZ13">
-        <v>0.86599999999999999</v>
+        <v>0.76193500000000003</v>
       </c>
       <c r="BA13">
-        <v>0.98509999999999986</v>
+        <v>0.98063999999999996</v>
       </c>
       <c r="BB13">
-        <v>0.96844999999999981</v>
+        <v>1.0031199999999998</v>
       </c>
       <c r="BC13">
-        <v>0.83260000000000001</v>
+        <v>0.74641499999999994</v>
       </c>
       <c r="BD13">
-        <v>0.98644999999999994</v>
+        <v>0.9521599999999999</v>
       </c>
       <c r="BE13">
-        <v>0.45154999999999984</v>
+        <v>0.44539999999999996</v>
       </c>
       <c r="BF13">
-        <v>0.95004999999999984</v>
+        <v>0.9235000000000001</v>
       </c>
       <c r="BG13">
-        <v>0.57479999999999998</v>
+        <v>0.46565000000000001</v>
       </c>
       <c r="BH13">
-        <v>0.41270000000000007</v>
+        <v>0.251245</v>
       </c>
       <c r="BI13">
-        <v>0.69200000000000006</v>
+        <v>0.63619000000000003</v>
       </c>
       <c r="BJ13">
-        <v>0.83179999999999998</v>
+        <v>0.34719500000000003</v>
       </c>
       <c r="BK13">
-        <v>0.96629999999999983</v>
+        <v>0.99551000000000012</v>
       </c>
       <c r="BL13">
-        <v>0.69555000000000011</v>
+        <v>0.57790999999999992</v>
       </c>
       <c r="BM13">
-        <v>0.73320000000000007</v>
+        <v>0.74358999999999997</v>
       </c>
       <c r="BN13">
-        <v>0.81669999999999998</v>
+        <v>0.76241999999999988</v>
       </c>
       <c r="BO13">
-        <v>0.68295000000000006</v>
+        <v>0.52059499999999992</v>
       </c>
       <c r="BP13">
-        <v>0.49512</v>
+        <v>0.34486000000000006</v>
       </c>
       <c r="BQ13">
-        <v>0.50471428571428578</v>
+        <v>0.26670952380952384</v>
       </c>
       <c r="BR13">
-        <v>0.54544999999999999</v>
+        <v>0.41464999999999996</v>
       </c>
       <c r="BS13">
-        <v>0.46639999999999998</v>
+        <v>0.188635</v>
       </c>
       <c r="BT13">
-        <v>0.27159999999999995</v>
+        <v>0.32933500000000004</v>
       </c>
       <c r="BU13">
-        <v>0.40395000000000003</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="BV13">
-        <v>0.34619499999999992</v>
+        <v>7.9545000000000005E-2</v>
       </c>
       <c r="BW13">
-        <v>0.35799999999999998</v>
+        <v>0.22698000000000002</v>
       </c>
       <c r="BX13">
-        <v>0.29387999999999997</v>
+        <v>4.7649999999999998E-2</v>
       </c>
       <c r="BY13">
-        <v>0.42249499999999995</v>
+        <v>6.2674999999999995E-2</v>
       </c>
       <c r="BZ13">
-        <v>4.8095238095238094E-2</v>
+        <v>6.9142857142857145E-2</v>
       </c>
     </row>
     <row r="14" spans="1:78">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.68071428571428583</v>
+      </c>
+      <c r="D14">
+        <v>0.66880000000000017</v>
+      </c>
+      <c r="E14">
+        <v>0.53378999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.60915000000000008</v>
+      </c>
+      <c r="G14">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.43325000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.71515000000000006</v>
+      </c>
+      <c r="K14">
+        <v>0.49403500000000006</v>
+      </c>
+      <c r="L14">
+        <v>0.75940000000000007</v>
+      </c>
+      <c r="M14">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.83180000000000009</v>
+      </c>
+      <c r="O14">
+        <v>0.84194999999999998</v>
+      </c>
+      <c r="P14">
+        <v>0.67635000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.91215000000000013</v>
+      </c>
+      <c r="R14">
+        <v>0.85734999999999972</v>
+      </c>
+      <c r="S14">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.96365000000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.98539999999999994</v>
+      </c>
+      <c r="V14">
+        <v>0.91225000000000023</v>
+      </c>
+      <c r="W14">
+        <v>0.89124999999999999</v>
+      </c>
+      <c r="X14">
+        <v>0.68934999999999991</v>
+      </c>
+      <c r="Y14">
+        <v>0.92464999999999997</v>
+      </c>
+      <c r="Z14">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="AA14">
+        <v>0.47794999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>0.53415000000000001</v>
+      </c>
+      <c r="AC14">
+        <v>0.93900000000000006</v>
+      </c>
+      <c r="AD14">
+        <v>0.97814999999999996</v>
+      </c>
+      <c r="AE14">
+        <v>0.48535000000000006</v>
+      </c>
+      <c r="AF14">
+        <v>0.90219999999999989</v>
+      </c>
+      <c r="AG14">
+        <v>0.78790476190476189</v>
+      </c>
+      <c r="AH14">
+        <v>0.85969999999999991</v>
+      </c>
+      <c r="AI14">
+        <v>0.7581</v>
+      </c>
+      <c r="AJ14">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="AK14">
+        <v>0.36335000000000006</v>
+      </c>
+      <c r="AL14">
+        <v>0.9869</v>
+      </c>
+      <c r="AM14">
+        <v>1.04175</v>
+      </c>
+      <c r="AN14">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="AO14">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="AP14">
+        <v>0.5665</v>
+      </c>
+      <c r="AQ14">
+        <v>0.29250000000000004</v>
+      </c>
+      <c r="AR14">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="AS14">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AT14">
+        <v>0.84500000000000031</v>
+      </c>
+      <c r="AU14">
+        <v>0.72709999999999986</v>
+      </c>
+      <c r="AV14">
+        <v>0.29439999999999994</v>
+      </c>
+      <c r="AW14">
+        <v>0.24949499999999997</v>
+      </c>
+      <c r="AX14">
+        <v>0.55347619047619057</v>
+      </c>
+      <c r="AY14">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="AZ14">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="BA14">
+        <v>0.98509999999999986</v>
+      </c>
+      <c r="BB14">
+        <v>0.96844999999999981</v>
+      </c>
+      <c r="BC14">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="BD14">
+        <v>0.98644999999999994</v>
+      </c>
+      <c r="BE14">
+        <v>0.45154999999999984</v>
+      </c>
+      <c r="BF14">
+        <v>0.95004999999999984</v>
+      </c>
+      <c r="BG14">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="BH14">
+        <v>0.41270000000000007</v>
+      </c>
+      <c r="BI14">
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="BJ14">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="BK14">
+        <v>0.96629999999999983</v>
+      </c>
+      <c r="BL14">
+        <v>0.69555000000000011</v>
+      </c>
+      <c r="BM14">
+        <v>0.73320000000000007</v>
+      </c>
+      <c r="BN14">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="BO14">
+        <v>0.68295000000000006</v>
+      </c>
+      <c r="BP14">
+        <v>0.49512</v>
+      </c>
+      <c r="BQ14">
+        <v>0.50471428571428578</v>
+      </c>
+      <c r="BR14">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="BS14">
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="BT14">
+        <v>0.27159999999999995</v>
+      </c>
+      <c r="BU14">
+        <v>0.40395000000000003</v>
+      </c>
+      <c r="BV14">
+        <v>0.34619499999999992</v>
+      </c>
+      <c r="BW14">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="BX14">
+        <v>0.29387999999999997</v>
+      </c>
+      <c r="BY14">
+        <v>0.42249499999999995</v>
+      </c>
+      <c r="BZ14">
+        <v>4.8095238095238094E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:78">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.58180952380952378</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.49980000000000002</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.36417000000000005</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.47785499999999992</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>0.46777500000000016</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>0.55849999999999989</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.33967999999999998</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>0.62364999999999993</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.31565000000000004</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.62887999999999988</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>0.3866</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>0.73185</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <v>0.69385000000000008</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>0.58649999999999991</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>0.89796999999999971</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <v>0.71531500000000003</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>0.99776500000000001</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>0.92959999999999998</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>0.97360000000000002</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>0.88465500000000008</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>0.88259999999999983</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <v>0.57347999999999999</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <v>0.88475000000000004</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>0.93520000000000025</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <v>0.45989999999999992</v>
       </c>
-      <c r="AB14">
+      <c r="AB15">
         <v>0.35442000000000001</v>
       </c>
-      <c r="AC14">
+      <c r="AC15">
         <v>0.89980000000000016</v>
       </c>
-      <c r="AD14">
+      <c r="AD15">
         <v>0.96689999999999987</v>
       </c>
-      <c r="AE14">
+      <c r="AE15">
         <v>0.34222999999999992</v>
       </c>
-      <c r="AF14">
+      <c r="AF15">
         <v>0.83955000000000002</v>
       </c>
-      <c r="AG14">
+      <c r="AG15">
         <v>0.67558571428571423</v>
       </c>
-      <c r="AH14">
+      <c r="AH15">
         <v>0.78664499999999993</v>
       </c>
-      <c r="AI14">
+      <c r="AI15">
         <v>0.55165000000000008</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ15">
         <v>0.64539999999999997</v>
       </c>
-      <c r="AK14">
+      <c r="AK15">
         <v>0.25960999999999995</v>
       </c>
-      <c r="AL14">
+      <c r="AL15">
         <v>0.96470000000000022</v>
       </c>
-      <c r="AM14">
+      <c r="AM15">
         <v>1.0422250000000002</v>
       </c>
-      <c r="AN14">
+      <c r="AN15">
         <v>0.68589999999999995</v>
       </c>
-      <c r="AO14">
+      <c r="AO15">
         <v>0.61035000000000006</v>
       </c>
-      <c r="AP14">
+      <c r="AP15">
         <v>0.32505000000000001</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ15">
         <v>0.16444499999999998</v>
       </c>
-      <c r="AR14">
+      <c r="AR15">
         <v>0.34009999999999996</v>
       </c>
-      <c r="AS14">
+      <c r="AS15">
         <v>0.29057499999999997</v>
       </c>
-      <c r="AT14">
+      <c r="AT15">
         <v>0.65739000000000014</v>
       </c>
-      <c r="AU14">
+      <c r="AU15">
         <v>0.58199999999999996</v>
       </c>
-      <c r="AV14">
+      <c r="AV15">
         <v>0.15701999999999999</v>
       </c>
-      <c r="AW14">
+      <c r="AW15">
         <v>8.1145000000000009E-2</v>
       </c>
-      <c r="AX14">
+      <c r="AX15">
         <v>0.4068523809523808</v>
       </c>
-      <c r="AY14">
+      <c r="AY15">
         <v>0.37914999999999999</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ15">
         <v>0.74274999999999991</v>
       </c>
-      <c r="BA14">
+      <c r="BA15">
         <v>0.95719999999999994</v>
       </c>
-      <c r="BB14">
+      <c r="BB15">
         <v>0.97610000000000008</v>
       </c>
-      <c r="BC14">
+      <c r="BC15">
         <v>0.75417499999999993</v>
       </c>
-      <c r="BD14">
+      <c r="BD15">
         <v>0.96425000000000016</v>
       </c>
-      <c r="BE14">
+      <c r="BE15">
         <v>0.45634999999999992</v>
       </c>
-      <c r="BF14">
+      <c r="BF15">
         <v>0.95145000000000002</v>
       </c>
-      <c r="BG14">
+      <c r="BG15">
         <v>0.38069999999999993</v>
       </c>
-      <c r="BH14">
+      <c r="BH15">
         <v>0.24037000000000003</v>
       </c>
-      <c r="BI14">
+      <c r="BI15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ15">
         <v>0.61170000000000002</v>
       </c>
-      <c r="BK14">
+      <c r="BK15">
         <v>0.96225000000000005</v>
       </c>
-      <c r="BL14">
+      <c r="BL15">
         <v>0.49535000000000001</v>
       </c>
-      <c r="BM14">
+      <c r="BM15">
         <v>0.63231999999999999</v>
       </c>
-      <c r="BN14">
+      <c r="BN15">
         <v>0.74135499999999999</v>
       </c>
-      <c r="BO14">
+      <c r="BO15">
         <v>0.45346000000000003</v>
       </c>
-      <c r="BP14">
+      <c r="BP15">
         <v>0.31881999999999999</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ15">
         <v>0.2033047619047619</v>
       </c>
-      <c r="BR14">
+      <c r="BR15">
         <v>0.3654400000000001</v>
       </c>
-      <c r="BS14">
+      <c r="BS15">
         <v>0.25738</v>
       </c>
-      <c r="BT14">
+      <c r="BT15">
         <v>0.175735</v>
       </c>
-      <c r="BU14">
+      <c r="BU15">
         <v>0.19098500000000002</v>
       </c>
-      <c r="BV14">
+      <c r="BV15">
         <v>0.35851</v>
       </c>
-      <c r="BW14">
+      <c r="BW15">
         <v>0.257745</v>
       </c>
-      <c r="BX14">
+      <c r="BX15">
         <v>0.13707499999999997</v>
       </c>
-      <c r="BY14">
+      <c r="BY15">
         <v>5.1104999999999998E-2</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ15">
         <v>4.0761904761904763E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:78">
-      <c r="A16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:78">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:78">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0.93</v>
-      </c>
-      <c r="D18">
-        <v>1.05</v>
-      </c>
-      <c r="E18">
-        <v>1.43</v>
-      </c>
-      <c r="F18">
-        <v>1.05</v>
-      </c>
-      <c r="G18">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="H18">
-        <v>1.79</v>
-      </c>
-      <c r="I18">
-        <v>0.94</v>
-      </c>
-      <c r="J18">
-        <v>1.06</v>
-      </c>
-      <c r="K18">
-        <v>1.34</v>
-      </c>
-      <c r="L18">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="M18">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="N18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O18">
-        <v>1.05</v>
-      </c>
-      <c r="P18">
-        <v>1.19</v>
-      </c>
-      <c r="Q18">
-        <v>1.26</v>
-      </c>
-      <c r="R18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="S18">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U18">
-        <v>1.22</v>
-      </c>
-      <c r="V18">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="W18">
-        <v>1.18</v>
-      </c>
-      <c r="X18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Y18">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Z18">
-        <v>1.19</v>
-      </c>
-      <c r="AA18">
-        <v>1.06</v>
-      </c>
-      <c r="AB18">
-        <v>1.19</v>
-      </c>
-      <c r="AC18">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AD18">
-        <v>1.08</v>
-      </c>
-      <c r="AE18">
-        <v>1.01</v>
-      </c>
-      <c r="AF18">
-        <v>1.79</v>
-      </c>
-      <c r="AG18">
-        <v>1.22</v>
-      </c>
-      <c r="AH18">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="AI18">
-        <v>1.17</v>
-      </c>
-      <c r="AJ18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AK18">
-        <v>1.39</v>
-      </c>
-      <c r="AL18">
-        <v>1.08</v>
-      </c>
-      <c r="AM18">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AN18">
-        <v>1.08</v>
-      </c>
-      <c r="AO18">
-        <v>1.06</v>
-      </c>
-      <c r="AP18">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="AQ18">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="AR18">
-        <v>1.01</v>
-      </c>
-      <c r="AS18">
-        <v>1.34</v>
-      </c>
-      <c r="AT18">
-        <v>1.34</v>
-      </c>
-      <c r="AU18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AV18">
-        <v>2.68</v>
-      </c>
-      <c r="AW18">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="AX18">
-        <v>1.67</v>
-      </c>
-      <c r="AY18">
-        <v>1.04</v>
-      </c>
-      <c r="AZ18">
-        <v>1.52</v>
-      </c>
-      <c r="BA18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BB18">
-        <v>1.53</v>
-      </c>
-      <c r="BC18">
-        <v>1.17</v>
-      </c>
-      <c r="BD18">
-        <v>1.2</v>
-      </c>
-      <c r="BE18">
-        <v>2.38</v>
-      </c>
-      <c r="BF18">
-        <v>1.08</v>
-      </c>
-      <c r="BG18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BH18">
-        <v>1.04</v>
-      </c>
-      <c r="BI18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BJ18">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BK18">
-        <v>1.3</v>
-      </c>
-      <c r="BL18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BM18">
-        <v>1.79</v>
-      </c>
-      <c r="BN18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BO18">
-        <v>1.03</v>
-      </c>
-      <c r="BP18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BQ18">
-        <v>1.03</v>
-      </c>
-      <c r="BR18">
-        <v>1.19</v>
-      </c>
-      <c r="BS18">
-        <v>1.46</v>
-      </c>
-      <c r="BT18">
-        <v>2.23</v>
-      </c>
-      <c r="BU18">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="BV18">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="BW18">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="BX18">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="BY18">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="BZ18">
-        <v>0.88900000000000001</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:78">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="D19">
-        <v>1.0900000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="E19">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="F19">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="G19">
-        <v>0.80900000000000005</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H19">
-        <v>1.22</v>
+        <v>1.79</v>
       </c>
       <c r="I19">
-        <v>0.996</v>
+        <v>0.94</v>
       </c>
       <c r="J19">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="K19">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="L19">
-        <v>0.93</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="M19">
-        <v>0.94699999999999995</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="N19">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O19">
+        <v>1.05</v>
+      </c>
+      <c r="P19">
+        <v>1.19</v>
+      </c>
+      <c r="Q19">
+        <v>1.26</v>
+      </c>
+      <c r="R19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P19">
-        <v>1.33</v>
-      </c>
-      <c r="Q19">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="R19">
-        <v>1.17</v>
-      </c>
-      <c r="S19">
-        <v>1.17</v>
-      </c>
       <c r="T19">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U19">
         <v>1.22</v>
       </c>
       <c r="V19">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="W19">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="X19">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Y19">
-        <v>1.08</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Z19">
         <v>1.19</v>
       </c>
       <c r="AA19">
-        <v>1.1100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AB19">
-        <v>1.1000000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="AC19">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AD19">
+        <v>1.08</v>
+      </c>
+      <c r="AE19">
+        <v>1.01</v>
+      </c>
+      <c r="AF19">
+        <v>1.79</v>
+      </c>
+      <c r="AG19">
+        <v>1.22</v>
+      </c>
+      <c r="AH19">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AI19">
+        <v>1.17</v>
+      </c>
+      <c r="AJ19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AK19">
+        <v>1.39</v>
+      </c>
+      <c r="AL19">
+        <v>1.08</v>
+      </c>
+      <c r="AM19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AE19">
-        <v>1.39</v>
-      </c>
-      <c r="AF19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AG19">
-        <v>0.999</v>
-      </c>
-      <c r="AH19">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="AI19">
-        <v>1.03</v>
-      </c>
-      <c r="AJ19">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK19">
-        <v>1.2</v>
-      </c>
-      <c r="AL19">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AM19">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="AN19">
+        <v>1.08</v>
+      </c>
+      <c r="AO19">
+        <v>1.06</v>
+      </c>
+      <c r="AP19">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AQ19">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AR19">
         <v>1.01</v>
       </c>
-      <c r="AO19">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AP19">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="AQ19">
-        <v>0.217</v>
-      </c>
-      <c r="AR19">
-        <v>1.03</v>
-      </c>
       <c r="AS19">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AT19">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="AU19">
         <v>1.1200000000000001</v>
       </c>
       <c r="AV19">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AW19">
-        <v>0.249</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="AX19">
-        <v>0.91700000000000004</v>
+        <v>1.67</v>
       </c>
       <c r="AY19">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AZ19">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="BA19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BB19">
+        <v>1.53</v>
+      </c>
+      <c r="BC19">
+        <v>1.17</v>
+      </c>
+      <c r="BD19">
+        <v>1.2</v>
+      </c>
+      <c r="BE19">
+        <v>2.38</v>
+      </c>
+      <c r="BF19">
+        <v>1.08</v>
+      </c>
+      <c r="BG19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BH19">
+        <v>1.04</v>
+      </c>
+      <c r="BI19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BJ19">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BK19">
+        <v>1.3</v>
+      </c>
+      <c r="BL19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BM19">
+        <v>1.79</v>
+      </c>
+      <c r="BN19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BO19">
+        <v>1.03</v>
+      </c>
+      <c r="BP19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="BB19">
-        <v>1.32</v>
-      </c>
-      <c r="BC19">
-        <v>1.01</v>
-      </c>
-      <c r="BD19">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="BE19">
-        <v>1.99</v>
-      </c>
-      <c r="BF19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BG19">
-        <v>1.01</v>
-      </c>
-      <c r="BH19">
-        <v>0.92</v>
-      </c>
-      <c r="BI19">
-        <v>1.06</v>
-      </c>
-      <c r="BJ19">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BK19">
+      <c r="BQ19">
+        <v>1.03</v>
+      </c>
+      <c r="BR19">
         <v>1.19</v>
       </c>
-      <c r="BL19">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="BM19">
-        <v>1.05</v>
-      </c>
-      <c r="BN19">
-        <v>1.17</v>
-      </c>
-      <c r="BO19">
-        <v>1.33</v>
-      </c>
-      <c r="BP19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BQ19">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="BR19">
-        <v>1.2</v>
-      </c>
       <c r="BS19">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BT19">
-        <v>1.99</v>
+        <v>2.23</v>
       </c>
       <c r="BU19">
-        <v>0.56200000000000006</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="BV19">
-        <v>0.59799999999999998</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="BW19">
-        <v>2.99</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="BX19">
-        <v>0.192</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="BY19">
-        <v>0.33200000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="BZ19">
-        <v>0.86599999999999999</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:78">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1.33</v>
+      </c>
+      <c r="F20">
+        <v>1.03</v>
+      </c>
+      <c r="G20">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H20">
+        <v>1.22</v>
+      </c>
+      <c r="I20">
+        <v>0.996</v>
+      </c>
+      <c r="J20">
+        <v>1.17</v>
+      </c>
+      <c r="K20">
+        <v>1.33</v>
+      </c>
+      <c r="L20">
+        <v>0.93</v>
+      </c>
+      <c r="M20">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="N20">
+        <v>1.06</v>
+      </c>
+      <c r="O20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P20">
+        <v>1.33</v>
+      </c>
+      <c r="Q20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D20">
-        <v>1.82</v>
-      </c>
-      <c r="E20">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F20">
-        <v>1.07</v>
-      </c>
-      <c r="G20">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I20">
-        <v>1.63</v>
-      </c>
-      <c r="J20">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K20">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="L20">
-        <v>1.82</v>
-      </c>
-      <c r="M20">
-        <v>1.03</v>
-      </c>
-      <c r="N20">
-        <v>1.05</v>
-      </c>
-      <c r="O20">
-        <v>1.07</v>
-      </c>
-      <c r="P20">
-        <v>1.04</v>
-      </c>
-      <c r="Q20">
-        <v>1.1299999999999999</v>
-      </c>
       <c r="R20">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="S20">
-        <v>1.1299999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="T20">
+        <v>1.17</v>
+      </c>
+      <c r="U20">
+        <v>1.22</v>
+      </c>
+      <c r="V20">
         <v>1.19</v>
       </c>
-      <c r="U20">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="V20">
-        <v>1.21</v>
-      </c>
       <c r="W20">
-        <v>1.1399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="X20">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="Y20">
         <v>1.08</v>
       </c>
       <c r="Z20">
+        <v>1.19</v>
+      </c>
+      <c r="AA20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>1.05</v>
+      </c>
+      <c r="AD20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>1.39</v>
+      </c>
+      <c r="AF20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>0.999</v>
+      </c>
+      <c r="AH20">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AI20">
+        <v>1.03</v>
+      </c>
+      <c r="AJ20">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AK20">
+        <v>1.2</v>
+      </c>
+      <c r="AL20">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AM20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN20">
+        <v>1.01</v>
+      </c>
+      <c r="AO20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AP20">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AQ20">
+        <v>0.217</v>
+      </c>
+      <c r="AR20">
+        <v>1.03</v>
+      </c>
+      <c r="AS20">
+        <v>1.03</v>
+      </c>
+      <c r="AT20">
+        <v>1.06</v>
+      </c>
+      <c r="AU20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AA20">
+      <c r="AV20">
+        <v>2.66</v>
+      </c>
+      <c r="AW20">
+        <v>0.249</v>
+      </c>
+      <c r="AX20">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>1.22</v>
+      </c>
+      <c r="BA20">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BB20">
+        <v>1.32</v>
+      </c>
+      <c r="BC20">
+        <v>1.01</v>
+      </c>
+      <c r="BD20">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BE20">
+        <v>1.99</v>
+      </c>
+      <c r="BF20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB20">
+      <c r="BG20">
+        <v>1.01</v>
+      </c>
+      <c r="BH20">
+        <v>0.92</v>
+      </c>
+      <c r="BI20">
+        <v>1.06</v>
+      </c>
+      <c r="BJ20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BK20">
+        <v>1.19</v>
+      </c>
+      <c r="BL20">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="BM20">
         <v>1.05</v>
       </c>
-      <c r="AC20">
+      <c r="BN20">
+        <v>1.17</v>
+      </c>
+      <c r="BO20">
+        <v>1.33</v>
+      </c>
+      <c r="BP20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD20">
-        <v>1.06</v>
-      </c>
-      <c r="AE20">
-        <v>1.82</v>
-      </c>
-      <c r="AF20">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AG20">
-        <v>1.02</v>
-      </c>
-      <c r="AH20">
-        <v>1.04</v>
-      </c>
-      <c r="AI20">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AJ20">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AK20">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AL20">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AM20">
-        <v>1.22</v>
-      </c>
-      <c r="AN20">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AO20">
-        <v>1.01</v>
-      </c>
-      <c r="AP20">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="AQ20">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AR20">
-        <v>1.31</v>
-      </c>
-      <c r="AS20">
-        <v>1.01</v>
-      </c>
-      <c r="AT20">
-        <v>1.29</v>
-      </c>
-      <c r="AU20">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AV20">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="AW20">
-        <v>0.66</v>
-      </c>
-      <c r="AX20">
-        <v>1.43</v>
-      </c>
-      <c r="AY20">
-        <v>2.27</v>
-      </c>
-      <c r="AZ20">
-        <v>1.19</v>
-      </c>
-      <c r="BA20">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BB20">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="BC20">
-        <v>1.06</v>
-      </c>
-      <c r="BD20">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BE20">
-        <v>1.82</v>
-      </c>
-      <c r="BF20">
-        <v>1.07</v>
-      </c>
-      <c r="BG20">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="BH20">
-        <v>1.07</v>
-      </c>
-      <c r="BI20">
-        <v>1.02</v>
-      </c>
-      <c r="BJ20">
-        <v>5.45</v>
-      </c>
-      <c r="BK20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BL20">
-        <v>1.26</v>
-      </c>
-      <c r="BM20">
-        <v>0.998</v>
-      </c>
-      <c r="BN20">
-        <v>1.05</v>
-      </c>
-      <c r="BO20">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="BP20">
-        <v>1.05</v>
-      </c>
       <c r="BQ20">
-        <v>1.51</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="BR20">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BS20">
-        <v>1.1299999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="BT20">
-        <v>0.90800000000000003</v>
+        <v>1.99</v>
       </c>
       <c r="BU20">
-        <v>0.8</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="BV20">
-        <v>0.90800000000000003</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="BW20">
-        <v>0.97</v>
+        <v>2.99</v>
       </c>
       <c r="BX20">
-        <v>1.1499999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="BY20">
-        <v>2.72</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="BZ20">
-        <v>1.01</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:78">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D21">
+        <v>1.82</v>
+      </c>
+      <c r="E21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F21">
+        <v>1.07</v>
+      </c>
+      <c r="G21">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H21">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E21">
-        <v>1.24</v>
-      </c>
-      <c r="F21">
-        <v>1.03</v>
-      </c>
-      <c r="G21">
-        <v>0.874</v>
-      </c>
-      <c r="H21">
-        <v>1.18</v>
-      </c>
       <c r="I21">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="J21">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K21">
-        <v>0.995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="L21">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="M21">
         <v>1.03</v>
       </c>
       <c r="N21">
+        <v>1.05</v>
+      </c>
+      <c r="O21">
+        <v>1.07</v>
+      </c>
+      <c r="P21">
+        <v>1.04</v>
+      </c>
+      <c r="Q21">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O21">
+      <c r="R21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T21">
+        <v>1.19</v>
+      </c>
+      <c r="U21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V21">
+        <v>1.21</v>
+      </c>
+      <c r="W21">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X21">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P21">
+      <c r="Y21">
+        <v>1.08</v>
+      </c>
+      <c r="Z21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB21">
+        <v>1.05</v>
+      </c>
+      <c r="AC21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD21">
         <v>1.06</v>
       </c>
-      <c r="Q21">
+      <c r="AE21">
+        <v>1.82</v>
+      </c>
+      <c r="AF21">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AG21">
+        <v>1.02</v>
+      </c>
+      <c r="AH21">
+        <v>1.04</v>
+      </c>
+      <c r="AI21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AJ21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AK21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AL21">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AM21">
+        <v>1.22</v>
+      </c>
+      <c r="AN21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AO21">
+        <v>1.01</v>
+      </c>
+      <c r="AP21">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AQ21">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="AR21">
+        <v>1.31</v>
+      </c>
+      <c r="AS21">
+        <v>1.01</v>
+      </c>
+      <c r="AT21">
+        <v>1.29</v>
+      </c>
+      <c r="AU21">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R21">
-        <v>1.07</v>
-      </c>
-      <c r="S21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T21">
-        <v>1.18</v>
-      </c>
-      <c r="U21">
-        <v>1.18</v>
-      </c>
-      <c r="V21">
-        <v>1.18</v>
-      </c>
-      <c r="W21">
-        <v>1.18</v>
-      </c>
-      <c r="X21">
-        <v>1.21</v>
-      </c>
-      <c r="Y21">
+      <c r="AV21">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AW21">
+        <v>0.66</v>
+      </c>
+      <c r="AX21">
+        <v>1.43</v>
+      </c>
+      <c r="AY21">
+        <v>2.27</v>
+      </c>
+      <c r="AZ21">
+        <v>1.19</v>
+      </c>
+      <c r="BA21">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="Z21">
-        <v>1.08</v>
-      </c>
-      <c r="AA21">
-        <v>1.17</v>
-      </c>
-      <c r="AB21">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AC21">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AD21">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AE21">
-        <v>1.07</v>
-      </c>
-      <c r="AF21">
-        <v>1.06</v>
-      </c>
-      <c r="AG21">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AH21">
-        <v>1.01</v>
-      </c>
-      <c r="AI21">
-        <v>1.07</v>
-      </c>
-      <c r="AJ21">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AK21">
-        <v>1.2</v>
-      </c>
-      <c r="AL21">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AM21">
-        <v>1.23</v>
-      </c>
-      <c r="AN21">
-        <v>1.06</v>
-      </c>
-      <c r="AO21">
-        <v>1.06</v>
-      </c>
-      <c r="AP21">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="AQ21">
-        <v>0.85</v>
-      </c>
-      <c r="AR21">
-        <v>1.35</v>
-      </c>
-      <c r="AS21">
-        <v>1.24</v>
-      </c>
-      <c r="AT21">
-        <v>1.01</v>
-      </c>
-      <c r="AU21">
-        <v>1.08</v>
-      </c>
-      <c r="AV21">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="AW21">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="AX21">
-        <v>1.19</v>
-      </c>
-      <c r="AY21">
-        <v>1.03</v>
-      </c>
-      <c r="AZ21">
-        <v>1.07</v>
-      </c>
-      <c r="BA21">
-        <v>1.1200000000000001</v>
       </c>
       <c r="BB21">
         <v>1.1299999999999999</v>
       </c>
       <c r="BC21">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="BD21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE21">
+        <v>1.82</v>
+      </c>
+      <c r="BF21">
+        <v>1.07</v>
+      </c>
+      <c r="BG21">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="BH21">
+        <v>1.07</v>
+      </c>
+      <c r="BI21">
+        <v>1.02</v>
+      </c>
+      <c r="BJ21">
+        <v>5.45</v>
+      </c>
+      <c r="BK21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BE21">
-        <v>3.11</v>
-      </c>
-      <c r="BF21">
+      <c r="BL21">
+        <v>1.26</v>
+      </c>
+      <c r="BM21">
+        <v>0.998</v>
+      </c>
+      <c r="BN21">
+        <v>1.05</v>
+      </c>
+      <c r="BO21">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="BP21">
+        <v>1.05</v>
+      </c>
+      <c r="BQ21">
+        <v>1.51</v>
+      </c>
+      <c r="BR21">
+        <v>1.22</v>
+      </c>
+      <c r="BS21">
         <v>1.1299999999999999</v>
       </c>
-      <c r="BG21">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="BH21">
-        <v>1.06</v>
-      </c>
-      <c r="BI21">
+      <c r="BT21">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="BU21">
+        <v>0.8</v>
+      </c>
+      <c r="BV21">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="BW21">
+        <v>0.97</v>
+      </c>
+      <c r="BX21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BY21">
+        <v>2.72</v>
+      </c>
+      <c r="BZ21">
         <v>1.01</v>
-      </c>
-      <c r="BJ21">
-        <v>2.48</v>
-      </c>
-      <c r="BK21">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="BL21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BM21">
-        <v>0.996</v>
-      </c>
-      <c r="BN21">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="BO21">
-        <v>1.02</v>
-      </c>
-      <c r="BP21">
-        <v>1.06</v>
-      </c>
-      <c r="BQ21">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="BR21">
-        <v>1.35</v>
-      </c>
-      <c r="BS21">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="BT21">
-        <v>1.45</v>
-      </c>
-      <c r="BU21">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="BV21">
-        <v>3.11</v>
-      </c>
-      <c r="BW21">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="BX21">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="BY21">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="BZ21">
-        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:78">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1.08</v>
+      </c>
+      <c r="D22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E22">
+        <v>1.24</v>
+      </c>
+      <c r="F22">
+        <v>1.03</v>
+      </c>
+      <c r="G22">
+        <v>0.874</v>
+      </c>
+      <c r="H22">
+        <v>1.18</v>
+      </c>
+      <c r="I22">
+        <v>1.99</v>
+      </c>
+      <c r="J22">
+        <v>1.07</v>
+      </c>
+      <c r="K22">
+        <v>0.995</v>
+      </c>
+      <c r="L22">
+        <v>1.55</v>
+      </c>
+      <c r="M22">
+        <v>1.03</v>
+      </c>
+      <c r="N22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P22">
+        <v>1.06</v>
+      </c>
+      <c r="Q22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R22">
+        <v>1.07</v>
+      </c>
+      <c r="S22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T22">
+        <v>1.18</v>
+      </c>
+      <c r="U22">
+        <v>1.18</v>
+      </c>
+      <c r="V22">
+        <v>1.18</v>
+      </c>
+      <c r="W22">
+        <v>1.18</v>
+      </c>
+      <c r="X22">
+        <v>1.21</v>
+      </c>
+      <c r="Y22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Z22">
+        <v>1.08</v>
+      </c>
+      <c r="AA22">
+        <v>1.17</v>
+      </c>
+      <c r="AB22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AC22">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AE22">
+        <v>1.07</v>
+      </c>
+      <c r="AF22">
+        <v>1.06</v>
+      </c>
+      <c r="AG22">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AH22">
+        <v>1.01</v>
+      </c>
+      <c r="AI22">
+        <v>1.07</v>
+      </c>
+      <c r="AJ22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AK22">
+        <v>1.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AM22">
+        <v>1.23</v>
+      </c>
+      <c r="AN22">
+        <v>1.06</v>
+      </c>
+      <c r="AO22">
+        <v>1.06</v>
+      </c>
+      <c r="AP22">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="AQ22">
+        <v>0.85</v>
+      </c>
+      <c r="AR22">
+        <v>1.35</v>
+      </c>
+      <c r="AS22">
+        <v>1.24</v>
+      </c>
+      <c r="AT22">
+        <v>1.01</v>
+      </c>
+      <c r="AU22">
+        <v>1.08</v>
+      </c>
+      <c r="AV22">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AW22">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AX22">
+        <v>1.19</v>
+      </c>
+      <c r="AY22">
+        <v>1.03</v>
+      </c>
+      <c r="AZ22">
+        <v>1.07</v>
+      </c>
+      <c r="BA22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BB22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="BC22">
+        <v>1.03</v>
+      </c>
+      <c r="BD22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BE22">
+        <v>3.11</v>
+      </c>
+      <c r="BF22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="BG22">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="BH22">
+        <v>1.06</v>
+      </c>
+      <c r="BI22">
+        <v>1.01</v>
+      </c>
+      <c r="BJ22">
+        <v>2.48</v>
+      </c>
+      <c r="BK22">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="BL22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BM22">
+        <v>0.996</v>
+      </c>
+      <c r="BN22">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="BO22">
+        <v>1.02</v>
+      </c>
+      <c r="BP22">
+        <v>1.06</v>
+      </c>
+      <c r="BQ22">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="BR22">
+        <v>1.35</v>
+      </c>
+      <c r="BS22">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="BT22">
+        <v>1.45</v>
+      </c>
+      <c r="BU22">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="BV22">
+        <v>3.11</v>
+      </c>
+      <c r="BW22">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="BX22">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="BY22">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="BZ22">
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:78">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="D23">
-        <v>1.04</v>
-      </c>
-      <c r="E23">
-        <v>1.43</v>
-      </c>
-      <c r="F23">
-        <v>1.05</v>
-      </c>
-      <c r="G23">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="H23">
-        <v>1.78</v>
-      </c>
-      <c r="I23">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="J23">
-        <v>1.06</v>
-      </c>
-      <c r="K23">
-        <v>1.34</v>
-      </c>
-      <c r="L23">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="M23">
-        <v>0.98</v>
-      </c>
-      <c r="N23">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O23">
-        <v>1.05</v>
-      </c>
-      <c r="P23">
-        <v>1.19</v>
-      </c>
-      <c r="Q23">
-        <v>1.25</v>
-      </c>
-      <c r="R23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="S23">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U23">
-        <v>1.22</v>
-      </c>
-      <c r="V23">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="W23">
-        <v>1.18</v>
-      </c>
-      <c r="X23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Y23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="Z23">
-        <v>1.18</v>
-      </c>
-      <c r="AA23">
-        <v>1.06</v>
-      </c>
-      <c r="AB23">
-        <v>1.19</v>
-      </c>
-      <c r="AC23">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>1.07</v>
-      </c>
-      <c r="AE23">
-        <v>1.01</v>
-      </c>
-      <c r="AF23">
-        <v>1.78</v>
-      </c>
-      <c r="AG23">
-        <v>1.22</v>
-      </c>
-      <c r="AH23">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="AI23">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AJ23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AK23">
-        <v>1.39</v>
-      </c>
-      <c r="AL23">
-        <v>1.08</v>
-      </c>
-      <c r="AM23">
-        <v>1.08</v>
-      </c>
-      <c r="AN23">
-        <v>1.08</v>
-      </c>
-      <c r="AO23">
-        <v>1.06</v>
-      </c>
-      <c r="AP23">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="AQ23">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="AR23">
-        <v>1.01</v>
-      </c>
-      <c r="AS23">
-        <v>1.34</v>
-      </c>
-      <c r="AT23">
-        <v>1.34</v>
-      </c>
-      <c r="AU23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AV23">
-        <v>2.67</v>
-      </c>
-      <c r="AW23">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="AX23">
-        <v>1.67</v>
-      </c>
-      <c r="AY23">
-        <v>1.04</v>
-      </c>
-      <c r="AZ23">
-        <v>1.52</v>
-      </c>
-      <c r="BA23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BB23">
-        <v>1.52</v>
-      </c>
-      <c r="BC23">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="BD23">
-        <v>1.2</v>
-      </c>
-      <c r="BE23">
-        <v>2.38</v>
-      </c>
-      <c r="BF23">
-        <v>1.08</v>
-      </c>
-      <c r="BG23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BH23">
-        <v>1.04</v>
-      </c>
-      <c r="BI23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BJ23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BK23">
-        <v>1.3</v>
-      </c>
-      <c r="BL23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BM23">
-        <v>1.78</v>
-      </c>
-      <c r="BN23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BO23">
-        <v>1.03</v>
-      </c>
-      <c r="BP23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BQ23">
-        <v>1.03</v>
-      </c>
-      <c r="BR23">
-        <v>1.19</v>
-      </c>
-      <c r="BS23">
-        <v>1.46</v>
-      </c>
-      <c r="BT23">
-        <v>2.23</v>
-      </c>
-      <c r="BU23">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="BV23">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="BW23">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="BX23">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="BY23">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="BZ23">
-        <v>0.88700000000000001</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:78">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.1599999999999999</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D24">
+        <v>1.04</v>
+      </c>
+      <c r="E24">
+        <v>1.43</v>
+      </c>
+      <c r="F24">
+        <v>1.05</v>
+      </c>
+      <c r="G24">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H24">
+        <v>1.78</v>
+      </c>
+      <c r="I24">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J24">
+        <v>1.06</v>
+      </c>
+      <c r="K24">
+        <v>1.34</v>
+      </c>
+      <c r="L24">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.98</v>
+      </c>
+      <c r="N24">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E24">
-        <v>1.33</v>
-      </c>
-      <c r="F24">
-        <v>1.03</v>
-      </c>
-      <c r="G24">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="H24">
-        <v>1.23</v>
-      </c>
-      <c r="I24">
-        <v>0.998</v>
-      </c>
-      <c r="J24">
-        <v>1.17</v>
-      </c>
-      <c r="K24">
-        <v>1.33</v>
-      </c>
-      <c r="L24">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="M24">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="N24">
-        <v>1.06</v>
-      </c>
       <c r="O24">
+        <v>1.05</v>
+      </c>
+      <c r="P24">
+        <v>1.19</v>
+      </c>
+      <c r="Q24">
+        <v>1.25</v>
+      </c>
+      <c r="R24">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S24">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P24">
-        <v>1.33</v>
-      </c>
-      <c r="Q24">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="R24">
-        <v>1.17</v>
-      </c>
-      <c r="S24">
-        <v>1.18</v>
-      </c>
       <c r="T24">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U24">
         <v>1.22</v>
       </c>
       <c r="V24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W24">
+        <v>1.18</v>
+      </c>
+      <c r="X24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y24">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Z24">
+        <v>1.18</v>
+      </c>
+      <c r="AA24">
+        <v>1.06</v>
+      </c>
+      <c r="AB24">
         <v>1.19</v>
       </c>
-      <c r="W24">
+      <c r="AC24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AD24">
+        <v>1.07</v>
+      </c>
+      <c r="AE24">
+        <v>1.01</v>
+      </c>
+      <c r="AF24">
+        <v>1.78</v>
+      </c>
+      <c r="AG24">
+        <v>1.22</v>
+      </c>
+      <c r="AH24">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AI24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AJ24">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AK24">
         <v>1.39</v>
       </c>
-      <c r="X24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Y24">
+      <c r="AL24">
         <v>1.08</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
+        <v>1.08</v>
+      </c>
+      <c r="AN24">
+        <v>1.08</v>
+      </c>
+      <c r="AO24">
+        <v>1.06</v>
+      </c>
+      <c r="AP24">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AQ24">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AR24">
+        <v>1.01</v>
+      </c>
+      <c r="AS24">
+        <v>1.34</v>
+      </c>
+      <c r="AT24">
+        <v>1.34</v>
+      </c>
+      <c r="AU24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AV24">
+        <v>2.67</v>
+      </c>
+      <c r="AW24">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AX24">
+        <v>1.67</v>
+      </c>
+      <c r="AY24">
+        <v>1.04</v>
+      </c>
+      <c r="AZ24">
+        <v>1.52</v>
+      </c>
+      <c r="BA24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BB24">
+        <v>1.52</v>
+      </c>
+      <c r="BC24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BD24">
         <v>1.2</v>
       </c>
-      <c r="AA24">
+      <c r="BE24">
+        <v>2.38</v>
+      </c>
+      <c r="BF24">
+        <v>1.08</v>
+      </c>
+      <c r="BG24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BH24">
+        <v>1.04</v>
+      </c>
+      <c r="BI24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BJ24">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AB24">
+      <c r="BK24">
+        <v>1.3</v>
+      </c>
+      <c r="BL24">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AC24">
-        <v>1.05</v>
-      </c>
-      <c r="AD24">
+      <c r="BM24">
+        <v>1.78</v>
+      </c>
+      <c r="BN24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE24">
-        <v>1.4</v>
-      </c>
-      <c r="AF24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="AI24">
+      <c r="BO24">
         <v>1.03</v>
       </c>
-      <c r="AJ24">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK24">
-        <v>1.21</v>
-      </c>
-      <c r="AL24">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AM24">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AN24">
-        <v>1.01</v>
-      </c>
-      <c r="AO24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AP24">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="AQ24">
-        <v>0.217</v>
-      </c>
-      <c r="AR24">
+      <c r="BP24">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BQ24">
         <v>1.03</v>
       </c>
-      <c r="AS24">
-        <v>1.03</v>
-      </c>
-      <c r="AT24">
-        <v>1.07</v>
-      </c>
-      <c r="AU24">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AV24">
-        <v>2.66</v>
-      </c>
-      <c r="AW24">
-        <v>0.249</v>
-      </c>
-      <c r="AX24">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="AY24">
-        <v>1</v>
-      </c>
-      <c r="AZ24">
-        <v>1.23</v>
-      </c>
-      <c r="BA24">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BB24">
-        <v>1.33</v>
-      </c>
-      <c r="BC24">
-        <v>1.01</v>
-      </c>
-      <c r="BD24">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="BE24">
-        <v>2</v>
-      </c>
-      <c r="BF24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BG24">
-        <v>1.01</v>
-      </c>
-      <c r="BH24">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="BI24">
-        <v>1.06</v>
-      </c>
-      <c r="BJ24">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BK24">
+      <c r="BR24">
         <v>1.19</v>
       </c>
-      <c r="BL24">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="BM24">
-        <v>1.05</v>
-      </c>
-      <c r="BN24">
-        <v>1.18</v>
-      </c>
-      <c r="BO24">
-        <v>1.33</v>
-      </c>
-      <c r="BP24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BQ24">
-        <v>0.65</v>
-      </c>
-      <c r="BR24">
-        <v>1.2</v>
-      </c>
       <c r="BS24">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BT24">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="BU24">
-        <v>0.56299999999999994</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="BV24">
-        <v>0.59899999999999998</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="BW24">
-        <v>2.99</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="BX24">
-        <v>0.192</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="BY24">
-        <v>0.33300000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="BZ24">
-        <v>0.86699999999999999</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:78">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.1200000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D25">
-        <v>1.82</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E25">
-        <v>1.1299999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="F25">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="G25">
-        <v>0.98499999999999999</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="H25">
-        <v>1.1499999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="I25">
-        <v>1.64</v>
+        <v>0.998</v>
       </c>
       <c r="J25">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="K25">
-        <v>0.93300000000000005</v>
+        <v>1.33</v>
       </c>
       <c r="L25">
-        <v>1.82</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="M25">
-        <v>1.03</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="N25">
         <v>1.06</v>
       </c>
       <c r="O25">
-        <v>1.07</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P25">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="Q25">
         <v>1.1299999999999999</v>
       </c>
       <c r="R25">
+        <v>1.17</v>
+      </c>
+      <c r="S25">
+        <v>1.18</v>
+      </c>
+      <c r="T25">
+        <v>1.17</v>
+      </c>
+      <c r="U25">
+        <v>1.22</v>
+      </c>
+      <c r="V25">
+        <v>1.19</v>
+      </c>
+      <c r="W25">
+        <v>1.39</v>
+      </c>
+      <c r="X25">
         <v>1.0900000000000001</v>
-      </c>
-      <c r="S25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="T25">
-        <v>1.19</v>
-      </c>
-      <c r="U25">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="V25">
-        <v>1.21</v>
-      </c>
-      <c r="W25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="X25">
-        <v>1.1499999999999999</v>
       </c>
       <c r="Y25">
         <v>1.08</v>
       </c>
       <c r="Z25">
+        <v>1.2</v>
+      </c>
+      <c r="AA25">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AC25">
+        <v>1.05</v>
+      </c>
+      <c r="AD25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE25">
+        <v>1.4</v>
+      </c>
+      <c r="AF25">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AI25">
+        <v>1.03</v>
+      </c>
+      <c r="AJ25">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AK25">
+        <v>1.21</v>
+      </c>
+      <c r="AL25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AM25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN25">
+        <v>1.01</v>
+      </c>
+      <c r="AO25">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AP25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="AQ25">
+        <v>0.217</v>
+      </c>
+      <c r="AR25">
+        <v>1.03</v>
+      </c>
+      <c r="AS25">
+        <v>1.03</v>
+      </c>
+      <c r="AT25">
+        <v>1.07</v>
+      </c>
+      <c r="AU25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AA25">
+      <c r="AV25">
+        <v>2.66</v>
+      </c>
+      <c r="AW25">
+        <v>0.249</v>
+      </c>
+      <c r="AX25">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1.23</v>
+      </c>
+      <c r="BA25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BB25">
+        <v>1.33</v>
+      </c>
+      <c r="BC25">
+        <v>1.01</v>
+      </c>
+      <c r="BD25">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BE25">
+        <v>2</v>
+      </c>
+      <c r="BF25">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BG25">
+        <v>1.01</v>
+      </c>
+      <c r="BH25">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="BI25">
+        <v>1.06</v>
+      </c>
+      <c r="BJ25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BK25">
+        <v>1.19</v>
+      </c>
+      <c r="BL25">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="BM25">
+        <v>1.05</v>
+      </c>
+      <c r="BN25">
+        <v>1.18</v>
+      </c>
+      <c r="BO25">
+        <v>1.33</v>
+      </c>
+      <c r="BP25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB25">
-        <v>1.06</v>
-      </c>
-      <c r="AC25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD25">
-        <v>1.06</v>
-      </c>
-      <c r="AE25">
-        <v>1.82</v>
-      </c>
-      <c r="AF25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AG25">
-        <v>1.02</v>
-      </c>
-      <c r="AH25">
-        <v>1.04</v>
-      </c>
-      <c r="AI25">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AJ25">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AK25">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AL25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AM25">
-        <v>1.22</v>
-      </c>
-      <c r="AN25">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AO25">
-        <v>1.01</v>
-      </c>
-      <c r="AP25">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="AQ25">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="AR25">
-        <v>1.31</v>
-      </c>
-      <c r="AS25">
-        <v>1.01</v>
-      </c>
-      <c r="AT25">
-        <v>1.29</v>
-      </c>
-      <c r="AU25">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AV25">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="AW25">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="AX25">
-        <v>1.43</v>
-      </c>
-      <c r="AY25">
-        <v>2.27</v>
-      </c>
-      <c r="AZ25">
-        <v>1.19</v>
-      </c>
-      <c r="BA25">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BB25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BC25">
-        <v>1.06</v>
-      </c>
-      <c r="BD25">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BE25">
-        <v>1.82</v>
-      </c>
-      <c r="BF25">
-        <v>1.07</v>
-      </c>
-      <c r="BG25">
-        <v>0.92</v>
-      </c>
-      <c r="BH25">
-        <v>1.07</v>
-      </c>
-      <c r="BI25">
-        <v>1.02</v>
-      </c>
-      <c r="BJ25">
-        <v>5.45</v>
-      </c>
-      <c r="BK25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BL25">
-        <v>1.26</v>
-      </c>
-      <c r="BM25">
-        <v>0.999</v>
-      </c>
-      <c r="BN25">
-        <v>1.05</v>
-      </c>
-      <c r="BO25">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="BP25">
-        <v>1.05</v>
-      </c>
       <c r="BQ25">
-        <v>1.51</v>
+        <v>0.65</v>
       </c>
       <c r="BR25">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BS25">
-        <v>1.1399999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="BT25">
-        <v>0.90900000000000003</v>
+        <v>2</v>
       </c>
       <c r="BU25">
-        <v>0.80100000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="BV25">
-        <v>0.90900000000000003</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="BW25">
-        <v>0.97099999999999997</v>
+        <v>2.99</v>
       </c>
       <c r="BX25">
-        <v>1.1499999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="BY25">
-        <v>2.73</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="BZ25">
-        <v>1.01</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:78">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D26">
+        <v>1.82</v>
+      </c>
+      <c r="E26">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F26">
+        <v>1.07</v>
+      </c>
+      <c r="G26">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E26">
-        <v>1.24</v>
-      </c>
-      <c r="F26">
-        <v>1.03</v>
-      </c>
-      <c r="G26">
-        <v>0.874</v>
-      </c>
-      <c r="H26">
-        <v>1.18</v>
-      </c>
       <c r="I26">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="J26">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K26">
-        <v>0.995</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="L26">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="M26">
         <v>1.03</v>
       </c>
       <c r="N26">
+        <v>1.06</v>
+      </c>
+      <c r="O26">
+        <v>1.07</v>
+      </c>
+      <c r="P26">
+        <v>1.04</v>
+      </c>
+      <c r="Q26">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O26">
+      <c r="R26">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="T26">
+        <v>1.19</v>
+      </c>
+      <c r="U26">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V26">
+        <v>1.21</v>
+      </c>
+      <c r="W26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P26">
+      <c r="Y26">
+        <v>1.08</v>
+      </c>
+      <c r="Z26">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB26">
         <v>1.06</v>
       </c>
-      <c r="Q26">
+      <c r="AC26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>1.06</v>
+      </c>
+      <c r="AE26">
+        <v>1.82</v>
+      </c>
+      <c r="AF26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AG26">
+        <v>1.02</v>
+      </c>
+      <c r="AH26">
+        <v>1.04</v>
+      </c>
+      <c r="AI26">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AJ26">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AK26">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AL26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AM26">
+        <v>1.22</v>
+      </c>
+      <c r="AN26">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AO26">
+        <v>1.01</v>
+      </c>
+      <c r="AP26">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AQ26">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AR26">
+        <v>1.31</v>
+      </c>
+      <c r="AS26">
+        <v>1.01</v>
+      </c>
+      <c r="AT26">
+        <v>1.29</v>
+      </c>
+      <c r="AU26">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R26">
+      <c r="AV26">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AW26">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AX26">
+        <v>1.43</v>
+      </c>
+      <c r="AY26">
+        <v>2.27</v>
+      </c>
+      <c r="AZ26">
+        <v>1.19</v>
+      </c>
+      <c r="BA26">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BB26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BC26">
+        <v>1.06</v>
+      </c>
+      <c r="BD26">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE26">
+        <v>1.82</v>
+      </c>
+      <c r="BF26">
         <v>1.07</v>
       </c>
-      <c r="S26">
+      <c r="BG26">
+        <v>0.92</v>
+      </c>
+      <c r="BH26">
+        <v>1.07</v>
+      </c>
+      <c r="BI26">
+        <v>1.02</v>
+      </c>
+      <c r="BJ26">
+        <v>5.45</v>
+      </c>
+      <c r="BK26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T26">
+      <c r="BL26">
+        <v>1.26</v>
+      </c>
+      <c r="BM26">
+        <v>0.999</v>
+      </c>
+      <c r="BN26">
+        <v>1.05</v>
+      </c>
+      <c r="BO26">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="BP26">
+        <v>1.05</v>
+      </c>
+      <c r="BQ26">
+        <v>1.51</v>
+      </c>
+      <c r="BR26">
+        <v>1.22</v>
+      </c>
+      <c r="BS26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BT26">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="BU26">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BV26">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="BW26">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="BX26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BY26">
+        <v>2.73</v>
+      </c>
+      <c r="BZ26">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:78">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1.08</v>
+      </c>
+      <c r="D27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E27">
+        <v>1.24</v>
+      </c>
+      <c r="F27">
+        <v>1.03</v>
+      </c>
+      <c r="G27">
+        <v>0.874</v>
+      </c>
+      <c r="H27">
         <v>1.18</v>
       </c>
-      <c r="U26">
+      <c r="I27">
+        <v>1.99</v>
+      </c>
+      <c r="J27">
+        <v>1.07</v>
+      </c>
+      <c r="K27">
+        <v>0.995</v>
+      </c>
+      <c r="L27">
+        <v>1.55</v>
+      </c>
+      <c r="M27">
+        <v>1.03</v>
+      </c>
+      <c r="N27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P27">
+        <v>1.06</v>
+      </c>
+      <c r="Q27">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R27">
+        <v>1.07</v>
+      </c>
+      <c r="S27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T27">
         <v>1.18</v>
       </c>
-      <c r="V26">
+      <c r="U27">
         <v>1.18</v>
       </c>
-      <c r="W26">
+      <c r="V27">
         <v>1.18</v>
       </c>
-      <c r="X26">
+      <c r="W27">
+        <v>1.18</v>
+      </c>
+      <c r="X27">
         <v>1.21</v>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <v>1.08</v>
       </c>
-      <c r="AA26">
+      <c r="AA27">
         <v>1.17</v>
       </c>
-      <c r="AB26">
+      <c r="AB27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AC26">
+      <c r="AC27">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AD26">
+      <c r="AD27">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AE26">
+      <c r="AE27">
         <v>1.07</v>
       </c>
-      <c r="AF26">
+      <c r="AF27">
         <v>1.06</v>
       </c>
-      <c r="AG26">
+      <c r="AG27">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AH26">
+      <c r="AH27">
         <v>1.01</v>
       </c>
-      <c r="AI26">
+      <c r="AI27">
         <v>1.07</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AK26">
+      <c r="AK27">
         <v>1.2</v>
       </c>
-      <c r="AL26">
+      <c r="AL27">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AM26">
+      <c r="AM27">
         <v>1.23</v>
       </c>
-      <c r="AN26">
+      <c r="AN27">
         <v>1.06</v>
       </c>
-      <c r="AO26">
+      <c r="AO27">
         <v>1.06</v>
       </c>
-      <c r="AP26">
+      <c r="AP27">
         <v>0.94499999999999995</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ27">
         <v>0.85</v>
       </c>
-      <c r="AR26">
+      <c r="AR27">
         <v>1.35</v>
       </c>
-      <c r="AS26">
+      <c r="AS27">
         <v>1.24</v>
       </c>
-      <c r="AT26">
+      <c r="AT27">
         <v>1.01</v>
       </c>
-      <c r="AU26">
+      <c r="AU27">
         <v>1.08</v>
       </c>
-      <c r="AV26">
+      <c r="AV27">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AW26">
+      <c r="AW27">
         <v>0.33900000000000002</v>
       </c>
-      <c r="AX26">
+      <c r="AX27">
         <v>1.19</v>
       </c>
-      <c r="AY26">
+      <c r="AY27">
         <v>1.03</v>
       </c>
-      <c r="AZ26">
+      <c r="AZ27">
         <v>1.08</v>
       </c>
-      <c r="BA26">
+      <c r="BA27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="BB26">
+      <c r="BB27">
         <v>1.1299999999999999</v>
       </c>
-      <c r="BC26">
+      <c r="BC27">
         <v>1.03</v>
       </c>
-      <c r="BD26">
+      <c r="BD27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BE26">
+      <c r="BE27">
         <v>3.11</v>
       </c>
-      <c r="BF26">
+      <c r="BF27">
         <v>1.1299999999999999</v>
       </c>
-      <c r="BG26">
+      <c r="BG27">
         <v>0.83099999999999996</v>
       </c>
-      <c r="BH26">
+      <c r="BH27">
         <v>1.06</v>
       </c>
-      <c r="BI26">
+      <c r="BI27">
         <v>1.01</v>
       </c>
-      <c r="BJ26">
+      <c r="BJ27">
         <v>2.48</v>
       </c>
-      <c r="BK26">
+      <c r="BK27">
         <v>1.0900000000000001</v>
       </c>
-      <c r="BL26">
+      <c r="BL27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BM26">
+      <c r="BM27">
         <v>0.996</v>
       </c>
-      <c r="BN26">
+      <c r="BN27">
         <v>1.0900000000000001</v>
       </c>
-      <c r="BO26">
+      <c r="BO27">
         <v>1.02</v>
       </c>
-      <c r="BP26">
+      <c r="BP27">
         <v>1.06</v>
       </c>
-      <c r="BQ26">
+      <c r="BQ27">
         <v>0.57599999999999996</v>
       </c>
-      <c r="BR26">
+      <c r="BR27">
         <v>1.35</v>
       </c>
-      <c r="BS26">
+      <c r="BS27">
         <v>0.93200000000000005</v>
       </c>
-      <c r="BT26">
+      <c r="BT27">
         <v>1.45</v>
       </c>
-      <c r="BU26">
+      <c r="BU27">
         <v>0.61199999999999999</v>
       </c>
-      <c r="BV26">
+      <c r="BV27">
         <v>3.11</v>
       </c>
-      <c r="BW26">
+      <c r="BW27">
         <v>0.99399999999999999</v>
       </c>
-      <c r="BX26">
+      <c r="BX27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="BY26">
+      <c r="BY27">
         <v>0.31900000000000001</v>
       </c>
-      <c r="BZ26">
+      <c r="BZ27">
         <v>0.85599999999999998</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:BZ9">
+  <conditionalFormatting sqref="B5:BZ8 B10:BZ10 B9:AC9 AE9:BZ9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -53495,7 +53792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:BZ15">
+  <conditionalFormatting sqref="B12:BZ16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -53507,7 +53804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:BZ21">
+  <conditionalFormatting sqref="B19:BZ22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -53519,7 +53816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:BZ26">
+  <conditionalFormatting sqref="B24:BZ27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
